--- a/app/forms/survey/survey.xlsx
+++ b/app/forms/survey/survey.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6079C016-FDFF-4B83-A656-55D32252AC41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\survey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5D37B8-F766-4145-A3F6-D538EAD8F38D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="910">
   <si>
     <t>branch_label</t>
   </si>
@@ -2822,6 +2827,66 @@
   <si>
     <t>Once</t>
   </si>
+  <si>
+    <t>extra_question1</t>
+  </si>
+  <si>
+    <t>extra_question2</t>
+  </si>
+  <si>
+    <t>extra_question3</t>
+  </si>
+  <si>
+    <t>extra_question4</t>
+  </si>
+  <si>
+    <t>extra_question5</t>
+  </si>
+  <si>
+    <t>extra_question6</t>
+  </si>
+  <si>
+    <t>extra_question7</t>
+  </si>
+  <si>
+    <t>extra_question8</t>
+  </si>
+  <si>
+    <t>extra_question9</t>
+  </si>
+  <si>
+    <t>extra_question10</t>
+  </si>
+  <si>
+    <t>extra_question11</t>
+  </si>
+  <si>
+    <t>extra_question12</t>
+  </si>
+  <si>
+    <t>extra_question13</t>
+  </si>
+  <si>
+    <t>extra_question14</t>
+  </si>
+  <si>
+    <t>extra_question15</t>
+  </si>
+  <si>
+    <t>extra_question16</t>
+  </si>
+  <si>
+    <t>extra_question17</t>
+  </si>
+  <si>
+    <t>extra_question18</t>
+  </si>
+  <si>
+    <t>extra_question19</t>
+  </si>
+  <si>
+    <t>extra_question20</t>
+  </si>
 </sst>
 </file>
 
@@ -2830,7 +2895,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2878,6 +2943,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -3416,25 +3487,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:V505"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F501" sqref="F501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.5703125"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125"/>
+    <col min="1" max="5" width="11.5546875"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="13" width="11.5703125"/>
-    <col min="14" max="14" width="95.85546875" style="1" customWidth="1"/>
-    <col min="15" max="1025" width="11.5703125"/>
+    <col min="10" max="13" width="11.5546875"/>
+    <col min="14" max="14" width="95.88671875" style="1" customWidth="1"/>
+    <col min="15" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17.649999999999999">
+    <row r="1" spans="2:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3499,7 +3570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3509,7 +3580,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="3" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -3527,10 +3598,10 @@
       </c>
       <c r="N3"/>
     </row>
-    <row r="4" spans="2:22" ht="12.75">
+    <row r="4" spans="2:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N4"/>
     </row>
-    <row r="5" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="5" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -3548,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="6" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -3560,7 +3631,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="7" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -3572,7 +3643,7 @@
       </c>
       <c r="N7"/>
     </row>
-    <row r="8" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="8" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -3584,7 +3655,7 @@
       </c>
       <c r="N8"/>
     </row>
-    <row r="9" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="9" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>27</v>
       </c>
@@ -3599,7 +3670,7 @@
       </c>
       <c r="N9"/>
     </row>
-    <row r="10" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="10" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>27</v>
       </c>
@@ -3611,7 +3682,7 @@
       </c>
       <c r="N10"/>
     </row>
-    <row r="11" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="11" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>39</v>
       </c>
@@ -3623,10 +3694,10 @@
       </c>
       <c r="N11"/>
     </row>
-    <row r="12" spans="2:22" ht="12.75">
+    <row r="12" spans="2:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N12"/>
     </row>
-    <row r="13" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="13" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>42</v>
       </c>
@@ -3641,7 +3712,7 @@
       </c>
       <c r="N13"/>
     </row>
-    <row r="14" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="14" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>27</v>
       </c>
@@ -3656,7 +3727,7 @@
       </c>
       <c r="N14"/>
     </row>
-    <row r="15" spans="2:22" ht="17.649999999999999" customHeight="1">
+    <row r="15" spans="2:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>49</v>
       </c>
@@ -3671,13 +3742,13 @@
       </c>
       <c r="N15"/>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="3:21">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="18" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>52</v>
       </c>
@@ -3698,10 +3769,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:21" ht="12.75">
+    <row r="19" spans="3:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N19"/>
     </row>
-    <row r="20" spans="3:21" s="7" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="20" spans="3:21" s="7" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>56</v>
       </c>
@@ -3709,22 +3780,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="21" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="22" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="23" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="24" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>58</v>
       </c>
       <c r="N24"/>
     </row>
-    <row r="25" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="25" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>59</v>
       </c>
@@ -3742,7 +3813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="3:21" ht="29.65" customHeight="1">
+    <row r="26" spans="3:21" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>64</v>
       </c>
@@ -3751,16 +3822,16 @@
       </c>
       <c r="N26"/>
     </row>
-    <row r="27" spans="3:21" ht="31.7" customHeight="1">
+    <row r="27" spans="3:21" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="N27"/>
     </row>
-    <row r="28" spans="3:21" ht="12.75">
+    <row r="28" spans="3:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N28"/>
     </row>
-    <row r="29" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="29" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>67</v>
       </c>
@@ -3778,7 +3849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="30" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>69</v>
       </c>
@@ -3793,7 +3864,7 @@
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="31" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3802,7 +3873,7 @@
       </c>
       <c r="N31"/>
     </row>
-    <row r="32" spans="3:21" ht="17.649999999999999" customHeight="1">
+    <row r="32" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>27</v>
       </c>
@@ -3814,13 +3885,13 @@
       </c>
       <c r="N32"/>
     </row>
-    <row r="33" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="33" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>75</v>
       </c>
       <c r="N33"/>
     </row>
-    <row r="34" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="34" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>56</v>
       </c>
@@ -3829,7 +3900,7 @@
       </c>
       <c r="N34"/>
     </row>
-    <row r="35" spans="3:14" ht="12.75">
+    <row r="35" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>77</v>
       </c>
@@ -3844,7 +3915,7 @@
       </c>
       <c r="N35"/>
     </row>
-    <row r="36" spans="3:14" ht="12.75">
+    <row r="36" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>56</v>
       </c>
@@ -3853,7 +3924,7 @@
       </c>
       <c r="N36"/>
     </row>
-    <row r="37" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="37" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>27</v>
       </c>
@@ -3865,19 +3936,19 @@
       </c>
       <c r="N37"/>
     </row>
-    <row r="38" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="38" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
       <c r="N38"/>
     </row>
-    <row r="39" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="39" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>75</v>
       </c>
       <c r="N39"/>
     </row>
-    <row r="40" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="40" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>56</v>
       </c>
@@ -3886,7 +3957,7 @@
       </c>
       <c r="N40"/>
     </row>
-    <row r="41" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="41" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>83</v>
       </c>
@@ -3901,7 +3972,7 @@
       </c>
       <c r="N41"/>
     </row>
-    <row r="42" spans="3:14" s="5" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="42" spans="3:14" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>56</v>
       </c>
@@ -3909,7 +3980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="22.5" customHeight="1">
+    <row r="43" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>27</v>
       </c>
@@ -3921,19 +3992,19 @@
       </c>
       <c r="N43"/>
     </row>
-    <row r="44" spans="3:14" ht="22.5" customHeight="1">
+    <row r="44" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>75</v>
       </c>
       <c r="N44"/>
     </row>
-    <row r="45" spans="3:14" ht="22.5" customHeight="1">
+    <row r="45" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>75</v>
       </c>
       <c r="N45"/>
     </row>
-    <row r="46" spans="3:14" ht="22.5" customHeight="1">
+    <row r="46" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>56</v>
       </c>
@@ -3942,7 +4013,7 @@
       </c>
       <c r="N46"/>
     </row>
-    <row r="47" spans="3:14" ht="22.5" customHeight="1">
+    <row r="47" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>89</v>
       </c>
@@ -3957,7 +4028,7 @@
       </c>
       <c r="N47"/>
     </row>
-    <row r="48" spans="3:14" ht="22.5" customHeight="1">
+    <row r="48" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>56</v>
       </c>
@@ -3966,7 +4037,7 @@
       </c>
       <c r="N48"/>
     </row>
-    <row r="49" spans="3:14" ht="22.5" customHeight="1">
+    <row r="49" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>27</v>
       </c>
@@ -3978,19 +4049,19 @@
       </c>
       <c r="N49"/>
     </row>
-    <row r="50" spans="3:14" ht="22.5" customHeight="1">
+    <row r="50" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>75</v>
       </c>
       <c r="N50"/>
     </row>
-    <row r="51" spans="3:14" ht="22.5" customHeight="1">
+    <row r="51" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>75</v>
       </c>
       <c r="N51"/>
     </row>
-    <row r="52" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="52" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>94</v>
       </c>
@@ -3999,7 +4070,7 @@
       </c>
       <c r="N52"/>
     </row>
-    <row r="53" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="53" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>96</v>
       </c>
@@ -4014,7 +4085,7 @@
       </c>
       <c r="N53"/>
     </row>
-    <row r="54" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="54" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>98</v>
       </c>
@@ -4029,7 +4100,7 @@
       </c>
       <c r="N54"/>
     </row>
-    <row r="55" spans="3:14" s="5" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="55" spans="3:14" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
         <v>56</v>
       </c>
@@ -4037,7 +4108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="56" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>27</v>
       </c>
@@ -4049,40 +4120,40 @@
       </c>
       <c r="N56"/>
     </row>
-    <row r="57" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="57" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>75</v>
       </c>
       <c r="N57"/>
     </row>
-    <row r="58" spans="3:14" ht="17.649999999999999" customHeight="1">
+    <row r="58" spans="3:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>75</v>
       </c>
       <c r="N58"/>
     </row>
-    <row r="59" spans="3:14" ht="12.75">
+    <row r="59" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N59"/>
     </row>
-    <row r="60" spans="3:14" ht="12.75">
+    <row r="60" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N60"/>
     </row>
-    <row r="61" spans="3:14" ht="12.75">
+    <row r="61" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N61"/>
     </row>
-    <row r="62" spans="3:14" ht="12.75">
+    <row r="62" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N62"/>
     </row>
-    <row r="63" spans="3:14" ht="12.75">
+    <row r="63" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N63"/>
     </row>
-    <row r="64" spans="3:14" ht="12.75">
+    <row r="64" spans="3:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N64"/>
     </row>
-    <row r="65" spans="1:14" ht="12.75">
+    <row r="65" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="66" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>103</v>
       </c>
@@ -4097,7 +4168,7 @@
       </c>
       <c r="N66"/>
     </row>
-    <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="67" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
@@ -4114,7 +4185,7 @@
       </c>
       <c r="N67"/>
     </row>
-    <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="68" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4132,7 +4203,7 @@
       </c>
       <c r="N68"/>
     </row>
-    <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="69" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11" t="s">
@@ -4143,7 +4214,7 @@
       </c>
       <c r="N69"/>
     </row>
-    <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="70" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4158,7 +4229,7 @@
       </c>
       <c r="N70"/>
     </row>
-    <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="71" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="s">
@@ -4166,7 +4237,7 @@
       </c>
       <c r="N71"/>
     </row>
-    <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="72" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4184,7 +4255,7 @@
       </c>
       <c r="N72"/>
     </row>
-    <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="73" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="s">
@@ -4195,7 +4266,7 @@
       </c>
       <c r="N73"/>
     </row>
-    <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="74" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4210,7 +4281,7 @@
       </c>
       <c r="N74"/>
     </row>
-    <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="75" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="s">
@@ -4218,7 +4289,7 @@
       </c>
       <c r="N75"/>
     </row>
-    <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="76" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4236,7 +4307,7 @@
       </c>
       <c r="N76"/>
     </row>
-    <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="77" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11" t="s">
@@ -4247,7 +4318,7 @@
       </c>
       <c r="N77"/>
     </row>
-    <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="78" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4265,7 +4336,7 @@
       </c>
       <c r="N78"/>
     </row>
-    <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="79" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12" t="s">
@@ -4276,7 +4347,7 @@
       </c>
       <c r="N79"/>
     </row>
-    <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="80" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
@@ -4291,7 +4362,7 @@
       </c>
       <c r="N80"/>
     </row>
-    <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="81" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12" t="s">
@@ -4299,7 +4370,7 @@
       </c>
       <c r="N81"/>
     </row>
-    <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="82" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="s">
@@ -4307,7 +4378,7 @@
       </c>
       <c r="N82"/>
     </row>
-    <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="83" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10" t="s">
@@ -4315,10 +4386,10 @@
       </c>
       <c r="N83"/>
     </row>
-    <row r="84" spans="1:14" ht="12.75">
+    <row r="84" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N84"/>
     </row>
-    <row r="85" spans="1:14" ht="22.5" customHeight="1">
+    <row r="85" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>126</v>
       </c>
@@ -4333,7 +4404,7 @@
       </c>
       <c r="N85"/>
     </row>
-    <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="86" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>130</v>
       </c>
@@ -4348,10 +4419,10 @@
       </c>
       <c r="N86"/>
     </row>
-    <row r="87" spans="1:14" ht="12.75">
+    <row r="87" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N87"/>
     </row>
-    <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="88" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4437,7 @@
       </c>
       <c r="N88"/>
     </row>
-    <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="89" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>56</v>
       </c>
@@ -4375,7 +4446,7 @@
       </c>
       <c r="N89"/>
     </row>
-    <row r="90" spans="1:14" ht="24" customHeight="1">
+    <row r="90" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>59</v>
       </c>
@@ -4387,13 +4458,13 @@
       </c>
       <c r="N90"/>
     </row>
-    <row r="91" spans="1:14" ht="24" customHeight="1">
+    <row r="91" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>75</v>
       </c>
       <c r="N91"/>
     </row>
-    <row r="92" spans="1:14" ht="24" customHeight="1">
+    <row r="92" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>56</v>
       </c>
@@ -4402,7 +4473,7 @@
       </c>
       <c r="N92"/>
     </row>
-    <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="93" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>59</v>
       </c>
@@ -4414,13 +4485,13 @@
       </c>
       <c r="N93"/>
     </row>
-    <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="94" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>75</v>
       </c>
       <c r="N94"/>
     </row>
-    <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="95" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>59</v>
       </c>
@@ -4432,16 +4503,16 @@
       </c>
       <c r="N95"/>
     </row>
-    <row r="96" spans="1:14" ht="12.75">
+    <row r="96" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N96"/>
     </row>
-    <row r="97" spans="3:20" ht="12.75">
+    <row r="97" spans="3:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N97"/>
     </row>
-    <row r="98" spans="3:20" ht="12.75">
+    <row r="98" spans="3:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N98"/>
     </row>
-    <row r="99" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="99" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>143</v>
       </c>
@@ -4459,7 +4530,7 @@
       </c>
       <c r="N99"/>
     </row>
-    <row r="100" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="100" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>56</v>
       </c>
@@ -4468,7 +4539,7 @@
       </c>
       <c r="N100"/>
     </row>
-    <row r="101" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="101" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
         <v>147</v>
       </c>
@@ -4480,13 +4551,13 @@
       </c>
       <c r="N101"/>
     </row>
-    <row r="102" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="102" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>75</v>
       </c>
       <c r="N102"/>
     </row>
-    <row r="103" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="103" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>150</v>
       </c>
@@ -4501,7 +4572,7 @@
       </c>
       <c r="N103"/>
     </row>
-    <row r="104" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="104" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>56</v>
       </c>
@@ -4510,13 +4581,13 @@
       </c>
       <c r="N104"/>
     </row>
-    <row r="105" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="105" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>58</v>
       </c>
       <c r="N105"/>
     </row>
-    <row r="106" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="106" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
         <v>64</v>
       </c>
@@ -4528,7 +4599,7 @@
       </c>
       <c r="N106"/>
     </row>
-    <row r="107" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="107" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
         <v>126</v>
       </c>
@@ -4546,7 +4617,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="108" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
         <v>126</v>
       </c>
@@ -4564,7 +4635,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="109" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
         <v>126</v>
       </c>
@@ -4582,25 +4653,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="110" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>66</v>
       </c>
       <c r="N110"/>
     </row>
-    <row r="111" spans="3:20" ht="17.649999999999999" customHeight="1">
+    <row r="111" spans="3:20" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>75</v>
       </c>
       <c r="N111"/>
     </row>
-    <row r="112" spans="3:20" ht="12.75">
+    <row r="112" spans="3:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N112"/>
     </row>
-    <row r="113" spans="1:14" ht="12.75">
+    <row r="113" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N113"/>
     </row>
-    <row r="114" spans="1:14" s="13" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="114" spans="1:14" s="13" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="14" t="s">
         <v>64</v>
       </c>
@@ -4608,7 +4679,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="115" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>166</v>
       </c>
@@ -4623,10 +4694,10 @@
       </c>
       <c r="N115"/>
     </row>
-    <row r="116" spans="1:14" ht="12.75">
+    <row r="116" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N116"/>
     </row>
-    <row r="117" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="117" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="15" t="s">
@@ -4640,7 +4711,7 @@
       </c>
       <c r="N117"/>
     </row>
-    <row r="118" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="118" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="15"/>
@@ -4658,7 +4729,7 @@
       </c>
       <c r="N118"/>
     </row>
-    <row r="119" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="119" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="16"/>
       <c r="C119" s="17" t="s">
@@ -4669,7 +4740,7 @@
       </c>
       <c r="N119"/>
     </row>
-    <row r="120" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="120" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="16"/>
       <c r="C120" s="17"/>
@@ -4684,7 +4755,7 @@
       </c>
       <c r="N120"/>
     </row>
-    <row r="121" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="121" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17" t="s">
@@ -4692,7 +4763,7 @@
       </c>
       <c r="N121"/>
     </row>
-    <row r="122" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="122" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="15"/>
@@ -4710,7 +4781,7 @@
       </c>
       <c r="N122"/>
     </row>
-    <row r="123" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="123" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="16"/>
       <c r="C123" s="17" t="s">
@@ -4721,7 +4792,7 @@
       </c>
       <c r="N123"/>
     </row>
-    <row r="124" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="124" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="16"/>
       <c r="C124" s="17"/>
@@ -4736,7 +4807,7 @@
       </c>
       <c r="N124"/>
     </row>
-    <row r="125" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="125" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="16"/>
       <c r="C125" s="17" t="s">
@@ -4744,7 +4815,7 @@
       </c>
       <c r="N125"/>
     </row>
-    <row r="126" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="126" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="15"/>
@@ -4762,7 +4833,7 @@
       </c>
       <c r="N126"/>
     </row>
-    <row r="127" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="127" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="16"/>
       <c r="C127" s="17" t="s">
@@ -4773,7 +4844,7 @@
       </c>
       <c r="N127"/>
     </row>
-    <row r="128" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="128" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="16"/>
       <c r="C128" s="17"/>
@@ -4788,7 +4859,7 @@
       </c>
       <c r="N128"/>
     </row>
-    <row r="129" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="129" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="16"/>
       <c r="C129" s="17" t="s">
@@ -4796,7 +4867,7 @@
       </c>
       <c r="N129"/>
     </row>
-    <row r="130" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="130" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="15"/>
@@ -4814,7 +4885,7 @@
       </c>
       <c r="N130"/>
     </row>
-    <row r="131" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="131" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="16"/>
       <c r="C131" s="17" t="s">
@@ -4825,7 +4896,7 @@
       </c>
       <c r="N131"/>
     </row>
-    <row r="132" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="132" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="16"/>
       <c r="C132" s="17"/>
@@ -4843,7 +4914,7 @@
       </c>
       <c r="N132"/>
     </row>
-    <row r="133" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="133" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="16"/>
       <c r="C133" s="18" t="s">
@@ -4854,7 +4925,7 @@
       </c>
       <c r="N133"/>
     </row>
-    <row r="134" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="134" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="16"/>
       <c r="C134" s="18"/>
@@ -4869,7 +4940,7 @@
       </c>
       <c r="N134"/>
     </row>
-    <row r="135" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="135" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="16"/>
       <c r="C135" s="18" t="s">
@@ -4877,7 +4948,7 @@
       </c>
       <c r="N135"/>
     </row>
-    <row r="136" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="136" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="16"/>
       <c r="C136" s="17" t="s">
@@ -4885,7 +4956,7 @@
       </c>
       <c r="N136"/>
     </row>
-    <row r="137" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="137" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="15"/>
@@ -4903,7 +4974,7 @@
       </c>
       <c r="N137"/>
     </row>
-    <row r="138" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="138" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="16"/>
       <c r="C138" s="17" t="s">
@@ -4914,7 +4985,7 @@
       </c>
       <c r="N138"/>
     </row>
-    <row r="139" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="139" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="16"/>
       <c r="C139" s="17"/>
@@ -4932,7 +5003,7 @@
       </c>
       <c r="N139"/>
     </row>
-    <row r="140" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="140" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="16"/>
       <c r="C140" s="18" t="s">
@@ -4943,7 +5014,7 @@
       </c>
       <c r="N140"/>
     </row>
-    <row r="141" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="141" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="16"/>
       <c r="C141" s="18"/>
@@ -4958,7 +5029,7 @@
       </c>
       <c r="N141"/>
     </row>
-    <row r="142" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="142" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="16"/>
       <c r="C142" s="18" t="s">
@@ -4966,7 +5037,7 @@
       </c>
       <c r="N142"/>
     </row>
-    <row r="143" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="143" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="16"/>
       <c r="C143" s="17" t="s">
@@ -4974,7 +5045,7 @@
       </c>
       <c r="N143"/>
     </row>
-    <row r="144" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="144" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="15"/>
@@ -4992,7 +5063,7 @@
       </c>
       <c r="N144"/>
     </row>
-    <row r="145" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="145" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="15"/>
@@ -5010,7 +5081,7 @@
       </c>
       <c r="N145"/>
     </row>
-    <row r="146" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="146" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="16"/>
       <c r="C146" s="17" t="s">
@@ -5021,7 +5092,7 @@
       </c>
       <c r="N146"/>
     </row>
-    <row r="147" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="147" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="16"/>
       <c r="C147" s="17"/>
@@ -5039,7 +5110,7 @@
       </c>
       <c r="N147"/>
     </row>
-    <row r="148" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="148" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="16"/>
       <c r="C148" s="18" t="s">
@@ -5050,7 +5121,7 @@
       </c>
       <c r="N148"/>
     </row>
-    <row r="149" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="149" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="16"/>
       <c r="C149" s="18"/>
@@ -5065,7 +5136,7 @@
       </c>
       <c r="N149"/>
     </row>
-    <row r="150" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="150" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="16"/>
       <c r="C150" s="18" t="s">
@@ -5073,7 +5144,7 @@
       </c>
       <c r="N150"/>
     </row>
-    <row r="151" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="151" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="16"/>
       <c r="C151" s="17" t="s">
@@ -5081,7 +5152,7 @@
       </c>
       <c r="N151"/>
     </row>
-    <row r="152" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="152" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="15"/>
@@ -5099,7 +5170,7 @@
       </c>
       <c r="N152"/>
     </row>
-    <row r="153" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="153" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="16"/>
       <c r="C153" s="17" t="s">
@@ -5110,7 +5181,7 @@
       </c>
       <c r="N153"/>
     </row>
-    <row r="154" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="154" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="16"/>
       <c r="C154" s="17"/>
@@ -5128,7 +5199,7 @@
       </c>
       <c r="N154"/>
     </row>
-    <row r="155" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="155" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="16"/>
       <c r="C155" s="18" t="s">
@@ -5139,7 +5210,7 @@
       </c>
       <c r="N155"/>
     </row>
-    <row r="156" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="156" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="16"/>
       <c r="C156" s="18"/>
@@ -5154,7 +5225,7 @@
       </c>
       <c r="N156"/>
     </row>
-    <row r="157" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="157" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="16"/>
       <c r="C157" s="18" t="s">
@@ -5162,7 +5233,7 @@
       </c>
       <c r="N157"/>
     </row>
-    <row r="158" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="158" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="16"/>
       <c r="C158" s="17" t="s">
@@ -5170,7 +5241,7 @@
       </c>
       <c r="N158"/>
     </row>
-    <row r="159" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="159" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="15" t="s">
@@ -5178,19 +5249,19 @@
       </c>
       <c r="N159"/>
     </row>
-    <row r="160" spans="1:14" ht="12.75">
+    <row r="160" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N160"/>
     </row>
-    <row r="161" spans="1:14" ht="12.75">
+    <row r="161" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N161"/>
     </row>
-    <row r="162" spans="1:14" ht="12.75">
+    <row r="162" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N162"/>
     </row>
-    <row r="163" spans="1:14" ht="12.75">
+    <row r="163" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N163"/>
     </row>
-    <row r="164" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="164" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E164" s="5" t="s">
         <v>220</v>
       </c>
@@ -5205,13 +5276,13 @@
       </c>
       <c r="N164"/>
     </row>
-    <row r="165" spans="1:14" ht="12.75">
+    <row r="165" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N165"/>
     </row>
-    <row r="166" spans="1:14" ht="12.75">
+    <row r="166" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N166"/>
     </row>
-    <row r="167" spans="1:14" s="13" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="167" spans="1:14" s="13" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F167" s="14" t="s">
         <v>64</v>
       </c>
@@ -5219,10 +5290,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="12.75">
+    <row r="168" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N168"/>
     </row>
-    <row r="169" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="169" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E169" s="5" t="s">
         <v>223</v>
       </c>
@@ -5237,10 +5308,10 @@
       </c>
       <c r="N169"/>
     </row>
-    <row r="170" spans="1:14" ht="12.75">
+    <row r="170" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N170"/>
     </row>
-    <row r="171" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="171" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19" t="s">
@@ -5251,7 +5322,7 @@
       </c>
       <c r="N171"/>
     </row>
-    <row r="172" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="172" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -5269,7 +5340,7 @@
       </c>
       <c r="N172"/>
     </row>
-    <row r="173" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="173" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="20" t="s">
@@ -5280,7 +5351,7 @@
       </c>
       <c r="N173"/>
     </row>
-    <row r="174" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="174" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="20"/>
@@ -5295,7 +5366,7 @@
       </c>
       <c r="N174"/>
     </row>
-    <row r="175" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="175" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="20" t="s">
@@ -5303,7 +5374,7 @@
       </c>
       <c r="N175"/>
     </row>
-    <row r="176" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="176" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="21" t="s">
@@ -5314,7 +5385,7 @@
       </c>
       <c r="N176"/>
     </row>
-    <row r="177" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="177" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="21"/>
@@ -5330,7 +5401,7 @@
       </c>
       <c r="N177"/>
     </row>
-    <row r="178" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="178" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="21" t="s">
@@ -5339,7 +5410,7 @@
       <c r="D178" s="5"/>
       <c r="N178"/>
     </row>
-    <row r="179" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="179" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="20" t="s">
@@ -5350,7 +5421,7 @@
       </c>
       <c r="N179"/>
     </row>
-    <row r="180" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="180" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="20"/>
@@ -5366,7 +5437,7 @@
       </c>
       <c r="N180"/>
     </row>
-    <row r="181" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="181" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="20" t="s">
@@ -5375,7 +5446,7 @@
       <c r="D181" s="5"/>
       <c r="N181"/>
     </row>
-    <row r="182" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="182" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="21" t="s">
@@ -5386,7 +5457,7 @@
       </c>
       <c r="N182"/>
     </row>
-    <row r="183" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="183" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="21"/>
@@ -5401,7 +5472,7 @@
       </c>
       <c r="N183"/>
     </row>
-    <row r="184" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="184" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="21" t="s">
@@ -5410,7 +5481,7 @@
       <c r="D184" s="5"/>
       <c r="N184"/>
     </row>
-    <row r="185" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="185" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -5428,7 +5499,7 @@
       </c>
       <c r="N185"/>
     </row>
-    <row r="186" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="186" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -5443,7 +5514,7 @@
       </c>
       <c r="N186"/>
     </row>
-    <row r="187" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="187" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -5461,7 +5532,7 @@
       </c>
       <c r="N187"/>
     </row>
-    <row r="188" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="188" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -5479,7 +5550,7 @@
       </c>
       <c r="N188"/>
     </row>
-    <row r="189" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="189" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="20" t="s">
@@ -5490,7 +5561,7 @@
       </c>
       <c r="N189"/>
     </row>
-    <row r="190" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="190" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="20"/>
@@ -5508,7 +5579,7 @@
       </c>
       <c r="N190"/>
     </row>
-    <row r="191" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="191" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="20" t="s">
@@ -5516,13 +5587,13 @@
       </c>
       <c r="N191"/>
     </row>
-    <row r="192" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="192" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
       <c r="N192"/>
     </row>
-    <row r="193" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="193" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -5540,7 +5611,7 @@
       </c>
       <c r="N193"/>
     </row>
-    <row r="194" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="194" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="21" t="s">
@@ -5551,7 +5622,7 @@
       </c>
       <c r="N194"/>
     </row>
-    <row r="195" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="195" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19"/>
       <c r="B195" s="19"/>
       <c r="C195" s="21"/>
@@ -5566,7 +5637,7 @@
       </c>
       <c r="N195"/>
     </row>
-    <row r="196" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="196" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
       <c r="B196" s="19"/>
       <c r="C196" s="21" t="s">
@@ -5574,7 +5645,7 @@
       </c>
       <c r="N196"/>
     </row>
-    <row r="197" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="197" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -5592,13 +5663,13 @@
       </c>
       <c r="N197"/>
     </row>
-    <row r="198" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="198" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
       <c r="N198"/>
     </row>
-    <row r="199" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="199" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="19"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13" t="s">
@@ -5609,7 +5680,7 @@
       </c>
       <c r="N199"/>
     </row>
-    <row r="200" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="200" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="19"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -5627,7 +5698,7 @@
       </c>
       <c r="N200"/>
     </row>
-    <row r="201" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="201" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="19"/>
       <c r="B201" s="13"/>
       <c r="C201" s="17" t="s">
@@ -5638,7 +5709,7 @@
       </c>
       <c r="N201"/>
     </row>
-    <row r="202" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="202" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="19"/>
       <c r="B202" s="13"/>
       <c r="C202" s="17"/>
@@ -5656,7 +5727,7 @@
       </c>
       <c r="N202"/>
     </row>
-    <row r="203" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="203" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="19"/>
       <c r="B203" s="13"/>
       <c r="C203" s="17" t="s">
@@ -5667,7 +5738,7 @@
       </c>
       <c r="N203"/>
     </row>
-    <row r="204" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="204" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="19"/>
       <c r="B204" s="13"/>
       <c r="C204" s="17"/>
@@ -5682,7 +5753,7 @@
       </c>
       <c r="N204"/>
     </row>
-    <row r="205" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="205" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="19"/>
       <c r="B205" s="13"/>
       <c r="C205" s="17" t="s">
@@ -5690,7 +5761,7 @@
       </c>
       <c r="N205"/>
     </row>
-    <row r="206" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="206" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="19"/>
       <c r="B206" s="13"/>
       <c r="C206" s="17" t="s">
@@ -5698,7 +5769,7 @@
       </c>
       <c r="N206"/>
     </row>
-    <row r="207" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="207" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="19"/>
       <c r="B207" s="13"/>
       <c r="C207" s="22" t="s">
@@ -5706,7 +5777,7 @@
       </c>
       <c r="N207"/>
     </row>
-    <row r="208" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="208" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="19"/>
       <c r="B208" s="13"/>
       <c r="C208" s="22"/>
@@ -5727,7 +5798,7 @@
       </c>
       <c r="N208"/>
     </row>
-    <row r="209" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="209" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="19"/>
       <c r="B209" s="13"/>
       <c r="C209" s="22"/>
@@ -5748,7 +5819,7 @@
       </c>
       <c r="N209"/>
     </row>
-    <row r="210" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="210" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="19"/>
       <c r="B210" s="13"/>
       <c r="C210" s="22"/>
@@ -5769,7 +5840,7 @@
       </c>
       <c r="N210"/>
     </row>
-    <row r="211" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="211" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="19"/>
       <c r="B211" s="13"/>
       <c r="C211" s="22"/>
@@ -5790,7 +5861,7 @@
       </c>
       <c r="N211"/>
     </row>
-    <row r="212" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="212" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="19"/>
       <c r="B212" s="13"/>
       <c r="C212" s="22" t="s">
@@ -5798,7 +5869,7 @@
       </c>
       <c r="N212"/>
     </row>
-    <row r="213" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="213" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="19"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -5819,7 +5890,7 @@
       </c>
       <c r="N213"/>
     </row>
-    <row r="214" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="214" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="19"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -5838,7 +5909,7 @@
       </c>
       <c r="N214"/>
     </row>
-    <row r="215" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="215" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19"/>
       <c r="B215" s="13"/>
       <c r="C215" s="17" t="s">
@@ -5849,7 +5920,7 @@
       </c>
       <c r="N215"/>
     </row>
-    <row r="216" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="216" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="19"/>
       <c r="B216" s="13"/>
       <c r="C216" s="17"/>
@@ -5864,7 +5935,7 @@
       </c>
       <c r="N216"/>
     </row>
-    <row r="217" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="217" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="19"/>
       <c r="B217" s="13"/>
       <c r="C217" s="17"/>
@@ -5879,7 +5950,7 @@
       </c>
       <c r="N217"/>
     </row>
-    <row r="218" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="218" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="19"/>
       <c r="B218" s="13"/>
       <c r="C218" s="17"/>
@@ -5897,7 +5968,7 @@
       </c>
       <c r="N218"/>
     </row>
-    <row r="219" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="219" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="19"/>
       <c r="B219" s="13"/>
       <c r="C219" s="17" t="s">
@@ -5905,7 +5976,7 @@
       </c>
       <c r="N219"/>
     </row>
-    <row r="220" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="220" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="19"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13" t="s">
@@ -5913,7 +5984,7 @@
       </c>
       <c r="N220"/>
     </row>
-    <row r="221" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="221" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -5928,7 +5999,7 @@
       </c>
       <c r="N221"/>
     </row>
-    <row r="222" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="222" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="19"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -5946,7 +6017,7 @@
       </c>
       <c r="N222"/>
     </row>
-    <row r="223" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="223" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -5964,7 +6035,7 @@
       </c>
       <c r="N223"/>
     </row>
-    <row r="224" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="224" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19"/>
       <c r="B224" s="23"/>
       <c r="C224" s="23" t="s">
@@ -5975,7 +6046,7 @@
       </c>
       <c r="N224"/>
     </row>
-    <row r="225" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="225" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19"/>
       <c r="B225" s="23"/>
       <c r="C225" s="23"/>
@@ -5993,7 +6064,7 @@
       </c>
       <c r="N225"/>
     </row>
-    <row r="226" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="226" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="19"/>
       <c r="B226" s="23"/>
       <c r="C226" s="24" t="s">
@@ -6004,7 +6075,7 @@
       </c>
       <c r="N226"/>
     </row>
-    <row r="227" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="227" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
       <c r="B227" s="23"/>
       <c r="C227" s="24"/>
@@ -6019,7 +6090,7 @@
       </c>
       <c r="N227"/>
     </row>
-    <row r="228" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="228" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
       <c r="B228" s="23"/>
       <c r="C228" s="24" t="s">
@@ -6027,7 +6098,7 @@
       </c>
       <c r="N228"/>
     </row>
-    <row r="229" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="229" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="19"/>
       <c r="B229" s="23"/>
       <c r="C229" s="23"/>
@@ -6046,7 +6117,7 @@
       </c>
       <c r="N229"/>
     </row>
-    <row r="230" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="230" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19"/>
       <c r="B230" s="23"/>
       <c r="C230" s="23" t="s">
@@ -6055,7 +6126,7 @@
       <c r="D230" s="5"/>
       <c r="N230"/>
     </row>
-    <row r="231" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="231" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="19"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19" t="s">
@@ -6063,16 +6134,16 @@
       </c>
       <c r="N231"/>
     </row>
-    <row r="232" spans="1:14" ht="12.75">
+    <row r="232" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N232"/>
     </row>
-    <row r="233" spans="1:14" ht="12.75">
+    <row r="233" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N233"/>
     </row>
-    <row r="234" spans="1:14" ht="12.75">
+    <row r="234" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N234"/>
     </row>
-    <row r="235" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="235" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E235" s="5" t="s">
         <v>302</v>
       </c>
@@ -6087,13 +6158,13 @@
       </c>
       <c r="N235"/>
     </row>
-    <row r="236" spans="1:14" ht="12.75">
+    <row r="236" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N236"/>
     </row>
-    <row r="237" spans="1:14" ht="12.75">
+    <row r="237" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N237"/>
     </row>
-    <row r="238" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="238" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E238" s="5" t="s">
         <v>304</v>
       </c>
@@ -6111,7 +6182,7 @@
       </c>
       <c r="N238"/>
     </row>
-    <row r="239" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="239" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13" t="s">
@@ -6128,13 +6199,13 @@
       </c>
       <c r="N239"/>
     </row>
-    <row r="240" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="240" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
       <c r="N240"/>
     </row>
-    <row r="241" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="241" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -6155,7 +6226,7 @@
       </c>
       <c r="N241"/>
     </row>
-    <row r="242" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="242" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="22"/>
       <c r="B242" s="22"/>
       <c r="C242" s="22" t="s">
@@ -6166,7 +6237,7 @@
       </c>
       <c r="N242"/>
     </row>
-    <row r="243" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="243" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="22"/>
       <c r="B243" s="22"/>
       <c r="C243" s="22"/>
@@ -6184,13 +6255,13 @@
       </c>
       <c r="N243"/>
     </row>
-    <row r="244" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="244" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="22"/>
       <c r="B244" s="22"/>
       <c r="C244" s="22"/>
       <c r="N244"/>
     </row>
-    <row r="245" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="245" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="22"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17" t="s">
@@ -6207,7 +6278,7 @@
       </c>
       <c r="N245"/>
     </row>
-    <row r="246" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="246" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="22"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -6219,7 +6290,7 @@
       </c>
       <c r="N246"/>
     </row>
-    <row r="247" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="247" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="22"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -6237,7 +6308,7 @@
       </c>
       <c r="N247"/>
     </row>
-    <row r="248" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="248" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="22"/>
       <c r="B248" s="17"/>
       <c r="C248" s="18" t="s">
@@ -6248,7 +6319,7 @@
       </c>
       <c r="N248"/>
     </row>
-    <row r="249" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="249" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="22"/>
       <c r="B249" s="17"/>
       <c r="C249" s="18"/>
@@ -6263,7 +6334,7 @@
       </c>
       <c r="N249"/>
     </row>
-    <row r="250" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="250" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="22"/>
       <c r="B250" s="17"/>
       <c r="C250" s="18" t="s">
@@ -6271,7 +6342,7 @@
       </c>
       <c r="N250"/>
     </row>
-    <row r="251" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="251" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="22"/>
       <c r="B251" s="17"/>
       <c r="C251" s="22" t="s">
@@ -6282,7 +6353,7 @@
       </c>
       <c r="N251"/>
     </row>
-    <row r="252" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="252" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="22"/>
       <c r="B252" s="17"/>
       <c r="C252" s="22"/>
@@ -6298,7 +6369,7 @@
       </c>
       <c r="N252"/>
     </row>
-    <row r="253" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="253" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="22"/>
       <c r="B253" s="17"/>
       <c r="C253" s="22" t="s">
@@ -6307,7 +6378,7 @@
       <c r="D253" s="5"/>
       <c r="N253"/>
     </row>
-    <row r="254" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="254" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="22"/>
       <c r="B254" s="17"/>
       <c r="C254" s="18" t="s">
@@ -6318,7 +6389,7 @@
       </c>
       <c r="N254"/>
     </row>
-    <row r="255" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="255" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="22"/>
       <c r="B255" s="17"/>
       <c r="C255" s="18"/>
@@ -6334,7 +6405,7 @@
       </c>
       <c r="N255"/>
     </row>
-    <row r="256" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="256" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="22"/>
       <c r="B256" s="17"/>
       <c r="C256" s="18" t="s">
@@ -6343,7 +6414,7 @@
       <c r="D256" s="5"/>
       <c r="N256"/>
     </row>
-    <row r="257" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="257" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="22"/>
       <c r="B257" s="17"/>
       <c r="C257" s="22" t="s">
@@ -6354,7 +6425,7 @@
       </c>
       <c r="N257"/>
     </row>
-    <row r="258" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="258" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="22"/>
       <c r="B258" s="17"/>
       <c r="C258" s="22"/>
@@ -6370,7 +6441,7 @@
       </c>
       <c r="N258"/>
     </row>
-    <row r="259" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="259" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="22"/>
       <c r="B259" s="17"/>
       <c r="C259" s="22" t="s">
@@ -6379,7 +6450,7 @@
       <c r="D259" s="5"/>
       <c r="N259"/>
     </row>
-    <row r="260" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="260" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="22"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -6397,7 +6468,7 @@
       </c>
       <c r="N260"/>
     </row>
-    <row r="261" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="261" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="22"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -6412,7 +6483,7 @@
       </c>
       <c r="N261"/>
     </row>
-    <row r="262" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="262" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="22"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -6430,7 +6501,7 @@
       </c>
       <c r="N262"/>
     </row>
-    <row r="263" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="263" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="22"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -6448,13 +6519,13 @@
       </c>
       <c r="N263"/>
     </row>
-    <row r="264" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="264" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="22"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
       <c r="N264"/>
     </row>
-    <row r="265" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="265" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="22"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -6475,7 +6546,7 @@
       </c>
       <c r="N265"/>
     </row>
-    <row r="266" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="266" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="22"/>
       <c r="B266" s="17"/>
       <c r="C266" s="18" t="s">
@@ -6492,7 +6563,7 @@
       </c>
       <c r="N266"/>
     </row>
-    <row r="267" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="267" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="22"/>
       <c r="B267" s="17"/>
       <c r="C267" s="18"/>
@@ -6510,7 +6581,7 @@
       </c>
       <c r="N267"/>
     </row>
-    <row r="268" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="268" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="22"/>
       <c r="B268" s="17"/>
       <c r="C268" s="18"/>
@@ -6525,7 +6596,7 @@
       </c>
       <c r="N268"/>
     </row>
-    <row r="269" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="269" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="22"/>
       <c r="B269" s="17"/>
       <c r="C269" s="18" t="s">
@@ -6533,7 +6604,7 @@
       </c>
       <c r="N269"/>
     </row>
-    <row r="270" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="270" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="22"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -6551,7 +6622,7 @@
       </c>
       <c r="N270"/>
     </row>
-    <row r="271" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="271" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="22"/>
       <c r="B271" s="17"/>
       <c r="C271" s="22" t="s">
@@ -6562,7 +6633,7 @@
       </c>
       <c r="N271"/>
     </row>
-    <row r="272" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="272" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="22"/>
       <c r="B272" s="17"/>
       <c r="C272" s="22"/>
@@ -6577,7 +6648,7 @@
       </c>
       <c r="N272"/>
     </row>
-    <row r="273" spans="1:14" ht="17.649999999999999" customHeight="1">
+    <row r="273" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="22"/>
       <c r="B273" s="17"/>
       <c r="C273" s="22" t="s">
@@ -6585,7 +6656,7 @@
       </c>
       <c r="N273"/>
     </row>
-    <row r="274" spans="1:14" ht="12.75" customHeight="1">
+    <row r="274" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="22"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -6603,13 +6674,13 @@
       </c>
       <c r="N274"/>
     </row>
-    <row r="275" spans="1:14" ht="12.75" customHeight="1">
+    <row r="275" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="22"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
       <c r="N275"/>
     </row>
-    <row r="276" spans="1:14" ht="12.75" customHeight="1">
+    <row r="276" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="22"/>
       <c r="B276" s="17"/>
       <c r="C276" s="18" t="s">
@@ -6626,7 +6697,7 @@
       </c>
       <c r="N276"/>
     </row>
-    <row r="277" spans="1:14" ht="12.75" customHeight="1">
+    <row r="277" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="22"/>
       <c r="B277" s="17"/>
       <c r="C277" s="18"/>
@@ -6644,7 +6715,7 @@
       </c>
       <c r="N277"/>
     </row>
-    <row r="278" spans="1:14" ht="12.75" customHeight="1">
+    <row r="278" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="22"/>
       <c r="B278" s="17"/>
       <c r="C278" s="25" t="s">
@@ -6655,7 +6726,7 @@
       </c>
       <c r="N278"/>
     </row>
-    <row r="279" spans="1:14" ht="12.75" customHeight="1">
+    <row r="279" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="22"/>
       <c r="B279" s="17"/>
       <c r="C279" s="25"/>
@@ -6673,7 +6744,7 @@
       </c>
       <c r="N279"/>
     </row>
-    <row r="280" spans="1:14" ht="12.75" customHeight="1">
+    <row r="280" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="22"/>
       <c r="B280" s="17"/>
       <c r="C280" s="25" t="s">
@@ -6684,7 +6755,7 @@
       </c>
       <c r="N280"/>
     </row>
-    <row r="281" spans="1:14" ht="12.75" customHeight="1">
+    <row r="281" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="22"/>
       <c r="B281" s="17"/>
       <c r="C281" s="25"/>
@@ -6699,7 +6770,7 @@
       </c>
       <c r="N281"/>
     </row>
-    <row r="282" spans="1:14" ht="12.75" customHeight="1">
+    <row r="282" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="22"/>
       <c r="B282" s="17"/>
       <c r="C282" s="25" t="s">
@@ -6707,7 +6778,7 @@
       </c>
       <c r="N282"/>
     </row>
-    <row r="283" spans="1:14" ht="12.75" customHeight="1">
+    <row r="283" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="22"/>
       <c r="B283" s="17"/>
       <c r="C283" s="25" t="s">
@@ -6715,7 +6786,7 @@
       </c>
       <c r="N283"/>
     </row>
-    <row r="284" spans="1:14" ht="12.75" customHeight="1">
+    <row r="284" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="22"/>
       <c r="B284" s="17"/>
       <c r="C284" s="18" t="s">
@@ -6729,7 +6800,7 @@
       </c>
       <c r="N284"/>
     </row>
-    <row r="285" spans="1:14" ht="12.75" customHeight="1">
+    <row r="285" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="22"/>
       <c r="B285" s="17"/>
       <c r="C285" s="18"/>
@@ -6750,7 +6821,7 @@
       </c>
       <c r="N285"/>
     </row>
-    <row r="286" spans="1:14" ht="12.75" customHeight="1">
+    <row r="286" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="22"/>
       <c r="B286" s="17"/>
       <c r="C286" s="18"/>
@@ -6771,7 +6842,7 @@
       </c>
       <c r="N286"/>
     </row>
-    <row r="287" spans="1:14" ht="12.75" customHeight="1">
+    <row r="287" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="22"/>
       <c r="B287" s="17"/>
       <c r="C287" s="18"/>
@@ -6792,7 +6863,7 @@
       </c>
       <c r="N287"/>
     </row>
-    <row r="288" spans="1:14" ht="12.75" customHeight="1">
+    <row r="288" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="22"/>
       <c r="B288" s="17"/>
       <c r="C288" s="18"/>
@@ -6813,7 +6884,7 @@
       </c>
       <c r="N288"/>
     </row>
-    <row r="289" spans="1:14" ht="12.75" customHeight="1">
+    <row r="289" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="22"/>
       <c r="B289" s="17"/>
       <c r="C289" s="18" t="s">
@@ -6821,19 +6892,19 @@
       </c>
       <c r="N289"/>
     </row>
-    <row r="290" spans="1:14" ht="12.75" customHeight="1">
+    <row r="290" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="22"/>
       <c r="B290" s="17"/>
       <c r="C290" s="18"/>
       <c r="N290"/>
     </row>
-    <row r="291" spans="1:14" ht="12.75" customHeight="1">
+    <row r="291" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="22"/>
       <c r="B291" s="17"/>
       <c r="C291" s="18"/>
       <c r="N291"/>
     </row>
-    <row r="292" spans="1:14" ht="12.75" customHeight="1">
+    <row r="292" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="22"/>
       <c r="B292" s="17"/>
       <c r="C292" s="18"/>
@@ -6854,7 +6925,7 @@
       </c>
       <c r="N292"/>
     </row>
-    <row r="293" spans="1:14" ht="12.75" customHeight="1">
+    <row r="293" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="22"/>
       <c r="B293" s="17"/>
       <c r="C293" s="18"/>
@@ -6872,7 +6943,7 @@
       </c>
       <c r="N293"/>
     </row>
-    <row r="294" spans="1:14" ht="12.75" customHeight="1">
+    <row r="294" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="22"/>
       <c r="B294" s="17"/>
       <c r="C294" s="25" t="s">
@@ -6889,7 +6960,7 @@
       </c>
       <c r="N294"/>
     </row>
-    <row r="295" spans="1:14" ht="12.75" customHeight="1">
+    <row r="295" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="22"/>
       <c r="B295" s="17"/>
       <c r="C295" s="25"/>
@@ -6904,7 +6975,7 @@
       </c>
       <c r="N295"/>
     </row>
-    <row r="296" spans="1:14" ht="12.75" customHeight="1">
+    <row r="296" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="22"/>
       <c r="B296" s="17"/>
       <c r="C296" s="25"/>
@@ -6922,7 +6993,7 @@
       </c>
       <c r="N296"/>
     </row>
-    <row r="297" spans="1:14" ht="12.75" customHeight="1">
+    <row r="297" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="22"/>
       <c r="B297" s="17"/>
       <c r="C297" s="25" t="s">
@@ -6930,7 +7001,7 @@
       </c>
       <c r="N297"/>
     </row>
-    <row r="298" spans="1:14" ht="12.75" customHeight="1">
+    <row r="298" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="22"/>
       <c r="B298" s="17"/>
       <c r="C298" s="18" t="s">
@@ -6938,7 +7009,7 @@
       </c>
       <c r="N298"/>
     </row>
-    <row r="299" spans="1:14" ht="12.75" customHeight="1">
+    <row r="299" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="22"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -6953,7 +7024,7 @@
       </c>
       <c r="N299"/>
     </row>
-    <row r="300" spans="1:14" ht="12.75" customHeight="1">
+    <row r="300" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="22"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -6971,7 +7042,7 @@
       </c>
       <c r="N300"/>
     </row>
-    <row r="301" spans="1:14" ht="12.75" customHeight="1">
+    <row r="301" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="22"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -6989,7 +7060,7 @@
       </c>
       <c r="N301"/>
     </row>
-    <row r="302" spans="1:14" ht="12.75" customHeight="1">
+    <row r="302" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="22"/>
       <c r="B302" s="17"/>
       <c r="C302" s="18" t="s">
@@ -7000,7 +7071,7 @@
       </c>
       <c r="N302"/>
     </row>
-    <row r="303" spans="1:14" ht="12.75" customHeight="1">
+    <row r="303" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="22"/>
       <c r="B303" s="17"/>
       <c r="C303" s="18"/>
@@ -7018,7 +7089,7 @@
       </c>
       <c r="N303"/>
     </row>
-    <row r="304" spans="1:14" ht="12.75" customHeight="1">
+    <row r="304" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="22"/>
       <c r="B304" s="17"/>
       <c r="C304" s="18" t="s">
@@ -7029,7 +7100,7 @@
       </c>
       <c r="N304"/>
     </row>
-    <row r="305" spans="1:20" ht="12.75" customHeight="1">
+    <row r="305" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="22"/>
       <c r="B305" s="17"/>
       <c r="C305" s="18"/>
@@ -7044,7 +7115,7 @@
       </c>
       <c r="N305"/>
     </row>
-    <row r="306" spans="1:20" ht="12.75" customHeight="1">
+    <row r="306" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="22"/>
       <c r="B306" s="17"/>
       <c r="C306" s="18" t="s">
@@ -7053,7 +7124,7 @@
       <c r="D306" s="5"/>
       <c r="N306"/>
     </row>
-    <row r="307" spans="1:20" ht="12.75" customHeight="1">
+    <row r="307" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="22"/>
       <c r="B307" s="17"/>
       <c r="C307" s="18"/>
@@ -7072,7 +7143,7 @@
       </c>
       <c r="N307"/>
     </row>
-    <row r="308" spans="1:20" ht="12.75" customHeight="1">
+    <row r="308" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="22"/>
       <c r="B308" s="17"/>
       <c r="C308" s="18" t="s">
@@ -7081,13 +7152,13 @@
       <c r="D308" s="5"/>
       <c r="N308"/>
     </row>
-    <row r="309" spans="1:20" ht="12.75" customHeight="1">
+    <row r="309" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="22"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
       <c r="N309"/>
     </row>
-    <row r="310" spans="1:20" ht="12.75" customHeight="1">
+    <row r="310" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="22"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -7099,7 +7170,7 @@
       </c>
       <c r="N310"/>
     </row>
-    <row r="311" spans="1:20" ht="12.75" customHeight="1">
+    <row r="311" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="22"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17" t="s">
@@ -7107,13 +7178,13 @@
       </c>
       <c r="N311"/>
     </row>
-    <row r="312" spans="1:20" ht="12.75" customHeight="1">
+    <row r="312" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="22"/>
       <c r="B312" s="22"/>
       <c r="C312" s="22"/>
       <c r="N312"/>
     </row>
-    <row r="313" spans="1:20" ht="12.75" customHeight="1">
+    <row r="313" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="22"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17" t="s">
@@ -7130,7 +7201,7 @@
       </c>
       <c r="N313"/>
     </row>
-    <row r="314" spans="1:20" ht="12.75" customHeight="1">
+    <row r="314" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="22"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -7151,13 +7222,13 @@
         <v>412</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="12.75" customHeight="1">
+    <row r="315" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="22"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
       <c r="N315"/>
     </row>
-    <row r="316" spans="1:20" ht="12.75" customHeight="1">
+    <row r="316" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="22"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -7175,7 +7246,7 @@
       </c>
       <c r="N316"/>
     </row>
-    <row r="317" spans="1:20" ht="12.75" customHeight="1">
+    <row r="317" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="22"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17" t="s">
@@ -7186,7 +7257,7 @@
       </c>
       <c r="N317"/>
     </row>
-    <row r="318" spans="1:20" ht="12.75" customHeight="1">
+    <row r="318" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="22"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -7201,7 +7272,7 @@
       </c>
       <c r="N318"/>
     </row>
-    <row r="319" spans="1:20" ht="12.75" customHeight="1">
+    <row r="319" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="22"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17" t="s">
@@ -7209,7 +7280,7 @@
       </c>
       <c r="N319"/>
     </row>
-    <row r="320" spans="1:20" ht="12.75" customHeight="1">
+    <row r="320" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="22"/>
       <c r="B320" s="17"/>
       <c r="C320" s="18" t="s">
@@ -7220,7 +7291,7 @@
       </c>
       <c r="N320"/>
     </row>
-    <row r="321" spans="1:14" ht="12.75" customHeight="1">
+    <row r="321" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="22"/>
       <c r="B321" s="17"/>
       <c r="C321" s="18"/>
@@ -7238,7 +7309,7 @@
       </c>
       <c r="N321"/>
     </row>
-    <row r="322" spans="1:14" ht="12.75" customHeight="1">
+    <row r="322" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="22"/>
       <c r="B322" s="17"/>
       <c r="C322" s="18" t="s">
@@ -7249,7 +7320,7 @@
       </c>
       <c r="N322"/>
     </row>
-    <row r="323" spans="1:14" ht="12.75" customHeight="1">
+    <row r="323" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="22"/>
       <c r="B323" s="17"/>
       <c r="C323" s="18"/>
@@ -7264,7 +7335,7 @@
       </c>
       <c r="N323"/>
     </row>
-    <row r="324" spans="1:14" ht="12.75" customHeight="1">
+    <row r="324" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="22"/>
       <c r="B324" s="17"/>
       <c r="C324" s="18" t="s">
@@ -7272,7 +7343,7 @@
       </c>
       <c r="N324"/>
     </row>
-    <row r="325" spans="1:14" ht="12.75" customHeight="1">
+    <row r="325" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="22"/>
       <c r="B325" s="17"/>
       <c r="C325" s="18" t="s">
@@ -7283,7 +7354,7 @@
       </c>
       <c r="N325"/>
     </row>
-    <row r="326" spans="1:14" ht="12.75" customHeight="1">
+    <row r="326" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="22"/>
       <c r="B326" s="17"/>
       <c r="C326" s="18"/>
@@ -7298,7 +7369,7 @@
       </c>
       <c r="N326"/>
     </row>
-    <row r="327" spans="1:14" ht="12.75" customHeight="1">
+    <row r="327" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="22"/>
       <c r="B327" s="17"/>
       <c r="C327" s="18" t="s">
@@ -7306,7 +7377,7 @@
       </c>
       <c r="N327"/>
     </row>
-    <row r="328" spans="1:14" ht="12.75" customHeight="1">
+    <row r="328" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="22"/>
       <c r="B328" s="17"/>
       <c r="C328" s="18" t="s">
@@ -7317,7 +7388,7 @@
       </c>
       <c r="N328"/>
     </row>
-    <row r="329" spans="1:14" ht="12.75" customHeight="1">
+    <row r="329" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="22"/>
       <c r="B329" s="17"/>
       <c r="C329" s="18"/>
@@ -7333,7 +7404,7 @@
       </c>
       <c r="N329"/>
     </row>
-    <row r="330" spans="1:14" ht="12.75" customHeight="1">
+    <row r="330" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="22"/>
       <c r="B330" s="17"/>
       <c r="C330" s="18" t="s">
@@ -7342,7 +7413,7 @@
       <c r="D330" s="5"/>
       <c r="N330"/>
     </row>
-    <row r="331" spans="1:14" ht="12.75" customHeight="1">
+    <row r="331" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="22"/>
       <c r="B331" s="17"/>
       <c r="C331" s="18" t="s">
@@ -7353,7 +7424,7 @@
       </c>
       <c r="N331"/>
     </row>
-    <row r="332" spans="1:14" ht="12.75" customHeight="1">
+    <row r="332" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="22"/>
       <c r="B332" s="17"/>
       <c r="C332" s="18"/>
@@ -7368,7 +7439,7 @@
       </c>
       <c r="N332"/>
     </row>
-    <row r="333" spans="1:14" ht="12.75" customHeight="1">
+    <row r="333" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="22"/>
       <c r="B333" s="17"/>
       <c r="C333" s="18" t="s">
@@ -7377,7 +7448,7 @@
       <c r="D333" s="5"/>
       <c r="N333"/>
     </row>
-    <row r="334" spans="1:14" ht="12.75" customHeight="1">
+    <row r="334" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="22"/>
       <c r="B334" s="17"/>
       <c r="C334" s="18"/>
@@ -7396,7 +7467,7 @@
       </c>
       <c r="N334"/>
     </row>
-    <row r="335" spans="1:14" ht="12.75" customHeight="1">
+    <row r="335" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="22"/>
       <c r="B335" s="17"/>
       <c r="C335" s="18"/>
@@ -7415,7 +7486,7 @@
       </c>
       <c r="N335"/>
     </row>
-    <row r="336" spans="1:14" ht="12.75" customHeight="1">
+    <row r="336" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="22"/>
       <c r="B336" s="17"/>
       <c r="C336" s="18" t="s">
@@ -7424,7 +7495,7 @@
       <c r="D336" s="5"/>
       <c r="N336"/>
     </row>
-    <row r="337" spans="1:14" ht="12.75" customHeight="1">
+    <row r="337" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="22"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17" t="s">
@@ -7432,7 +7503,7 @@
       </c>
       <c r="N337"/>
     </row>
-    <row r="338" spans="1:14" ht="12.75" customHeight="1">
+    <row r="338" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="22"/>
       <c r="B338" s="22"/>
       <c r="C338" s="22" t="s">
@@ -7440,7 +7511,7 @@
       </c>
       <c r="N338"/>
     </row>
-    <row r="339" spans="1:14" ht="12.75" customHeight="1">
+    <row r="339" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -7458,7 +7529,7 @@
       </c>
       <c r="N339"/>
     </row>
-    <row r="340" spans="1:14" ht="12.75" customHeight="1">
+    <row r="340" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -7476,7 +7547,7 @@
       </c>
       <c r="N340"/>
     </row>
-    <row r="341" spans="1:14" ht="12.75" customHeight="1">
+    <row r="341" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="13"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17" t="s">
@@ -7487,7 +7558,7 @@
       </c>
       <c r="N341"/>
     </row>
-    <row r="342" spans="1:14" ht="12.75" customHeight="1">
+    <row r="342" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="13"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="N342"/>
     </row>
-    <row r="343" spans="1:14" ht="12.75" customHeight="1">
+    <row r="343" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="13"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17" t="s">
@@ -7516,7 +7587,7 @@
       </c>
       <c r="N343"/>
     </row>
-    <row r="344" spans="1:14" ht="12.75" customHeight="1">
+    <row r="344" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="13"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -7531,7 +7602,7 @@
       </c>
       <c r="N344"/>
     </row>
-    <row r="345" spans="1:14" ht="12.75" customHeight="1">
+    <row r="345" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="13"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17" t="s">
@@ -7539,7 +7610,7 @@
       </c>
       <c r="N345"/>
     </row>
-    <row r="346" spans="1:14" ht="12.75" customHeight="1">
+    <row r="346" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -7558,7 +7629,7 @@
       </c>
       <c r="N346"/>
     </row>
-    <row r="347" spans="1:14" ht="12.75" customHeight="1">
+    <row r="347" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="13"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17" t="s">
@@ -7566,19 +7637,19 @@
       </c>
       <c r="N347"/>
     </row>
-    <row r="348" spans="1:14" ht="12.75" customHeight="1">
+    <row r="348" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
       <c r="N348"/>
     </row>
-    <row r="349" spans="1:14" ht="12.75" customHeight="1">
+    <row r="349" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
       <c r="N349"/>
     </row>
-    <row r="350" spans="1:14" ht="12.75" customHeight="1">
+    <row r="350" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13" t="s">
@@ -7586,22 +7657,22 @@
       </c>
       <c r="N350"/>
     </row>
-    <row r="351" spans="1:14" ht="12.75">
+    <row r="351" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N351"/>
     </row>
-    <row r="352" spans="1:14" ht="12.75">
+    <row r="352" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N352"/>
     </row>
-    <row r="353" spans="1:18" ht="12.75">
+    <row r="353" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N353"/>
     </row>
-    <row r="354" spans="1:18" ht="12.75">
+    <row r="354" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N354"/>
     </row>
-    <row r="355" spans="1:18" ht="12.75">
+    <row r="355" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N355"/>
     </row>
-    <row r="356" spans="1:18" ht="12.75" customHeight="1">
+    <row r="356" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E356" s="26" t="s">
         <v>449</v>
       </c>
@@ -7617,7 +7688,7 @@
       <c r="I356" s="26"/>
       <c r="N356"/>
     </row>
-    <row r="357" spans="1:18" ht="12.75" customHeight="1">
+    <row r="357" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E357" s="26"/>
       <c r="F357" t="s">
         <v>59</v>
@@ -7640,10 +7711,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="12.75">
+    <row r="358" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N358"/>
     </row>
-    <row r="359" spans="1:18" ht="12.75" customHeight="1">
+    <row r="359" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
         <v>454</v>
       </c>
@@ -7658,7 +7729,7 @@
       </c>
       <c r="N359"/>
     </row>
-    <row r="360" spans="1:18" ht="12.75" customHeight="1">
+    <row r="360" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="10" t="s">
@@ -7675,7 +7746,7 @@
       </c>
       <c r="N360"/>
     </row>
-    <row r="361" spans="1:18" ht="12.75" customHeight="1">
+    <row r="361" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
@@ -7693,7 +7764,7 @@
       </c>
       <c r="N361"/>
     </row>
-    <row r="362" spans="1:18" ht="12.75" customHeight="1">
+    <row r="362" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
@@ -7711,7 +7782,7 @@
       </c>
       <c r="N362"/>
     </row>
-    <row r="363" spans="1:18" ht="12.75" customHeight="1">
+    <row r="363" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11" t="s">
@@ -7728,7 +7799,7 @@
       </c>
       <c r="N363"/>
     </row>
-    <row r="364" spans="1:18" ht="12.75" customHeight="1">
+    <row r="364" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -7746,7 +7817,7 @@
       </c>
       <c r="N364"/>
     </row>
-    <row r="365" spans="1:18" ht="12.75" customHeight="1">
+    <row r="365" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="10"/>
       <c r="B365" s="11"/>
       <c r="C365" s="27" t="s">
@@ -7757,7 +7828,7 @@
       </c>
       <c r="N365"/>
     </row>
-    <row r="366" spans="1:18" ht="12.75" customHeight="1">
+    <row r="366" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10"/>
       <c r="B366" s="11"/>
       <c r="C366" s="27"/>
@@ -7772,7 +7843,7 @@
       </c>
       <c r="N366"/>
     </row>
-    <row r="367" spans="1:18" ht="12.75" customHeight="1">
+    <row r="367" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10"/>
       <c r="B367" s="11"/>
       <c r="C367" s="27" t="s">
@@ -7780,7 +7851,7 @@
       </c>
       <c r="N367"/>
     </row>
-    <row r="368" spans="1:18" ht="12.75" customHeight="1">
+    <row r="368" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10"/>
       <c r="B368" s="11"/>
       <c r="C368" s="10" t="s">
@@ -7791,7 +7862,7 @@
       </c>
       <c r="N368"/>
     </row>
-    <row r="369" spans="1:14" ht="12.75" customHeight="1">
+    <row r="369" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10"/>
       <c r="B369" s="11"/>
       <c r="C369" s="10"/>
@@ -7806,7 +7877,7 @@
       </c>
       <c r="N369"/>
     </row>
-    <row r="370" spans="1:14" ht="12.75" customHeight="1">
+    <row r="370" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
       <c r="B370" s="11"/>
       <c r="C370" s="10" t="s">
@@ -7815,7 +7886,7 @@
       <c r="D370" s="5"/>
       <c r="N370"/>
     </row>
-    <row r="371" spans="1:14" ht="12.75" customHeight="1">
+    <row r="371" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="10"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -7833,7 +7904,7 @@
       </c>
       <c r="N371"/>
     </row>
-    <row r="372" spans="1:14" ht="12.75" customHeight="1">
+    <row r="372" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" s="11"/>
       <c r="C372" s="27" t="s">
@@ -7844,7 +7915,7 @@
       </c>
       <c r="N372"/>
     </row>
-    <row r="373" spans="1:14" ht="12.75" customHeight="1">
+    <row r="373" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10"/>
       <c r="B373" s="11"/>
       <c r="C373" s="27"/>
@@ -7859,7 +7930,7 @@
       </c>
       <c r="N373"/>
     </row>
-    <row r="374" spans="1:14" ht="12.75" customHeight="1">
+    <row r="374" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="B374" s="11"/>
       <c r="C374" s="27" t="s">
@@ -7868,7 +7939,7 @@
       <c r="D374" s="5"/>
       <c r="N374"/>
     </row>
-    <row r="375" spans="1:14" ht="12.75" customHeight="1">
+    <row r="375" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11" t="s">
@@ -7876,13 +7947,13 @@
       </c>
       <c r="N375"/>
     </row>
-    <row r="376" spans="1:14" ht="12.75">
+    <row r="376" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
       <c r="N376"/>
     </row>
-    <row r="377" spans="1:14" ht="12.75" customHeight="1">
+    <row r="377" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
@@ -7900,7 +7971,7 @@
       </c>
       <c r="N377"/>
     </row>
-    <row r="378" spans="1:14" ht="12.75" customHeight="1">
+    <row r="378" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11" t="s">
@@ -7911,7 +7982,7 @@
       </c>
       <c r="N378"/>
     </row>
-    <row r="379" spans="1:14" ht="12.75" customHeight="1">
+    <row r="379" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -7929,7 +8000,7 @@
       </c>
       <c r="N379"/>
     </row>
-    <row r="380" spans="1:14" ht="12.75" customHeight="1">
+    <row r="380" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11" t="s">
@@ -7938,7 +8009,7 @@
       <c r="D380" s="5"/>
       <c r="N380"/>
     </row>
-    <row r="381" spans="1:14" ht="12.75" customHeight="1">
+    <row r="381" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" s="10"/>
       <c r="C381" s="10" t="s">
@@ -7946,7 +8017,7 @@
       </c>
       <c r="N381"/>
     </row>
-    <row r="382" spans="1:14" ht="12.75" customHeight="1">
+    <row r="382" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
         <v>484</v>
       </c>
@@ -7961,7 +8032,7 @@
       </c>
       <c r="N382"/>
     </row>
-    <row r="383" spans="1:14" ht="12.75" customHeight="1">
+    <row r="383" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
         <v>486</v>
       </c>
@@ -7976,7 +8047,7 @@
       </c>
       <c r="N383"/>
     </row>
-    <row r="384" spans="1:14" ht="12.75" customHeight="1">
+    <row r="384" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
         <v>56</v>
       </c>
@@ -7985,7 +8056,7 @@
       </c>
       <c r="N384"/>
     </row>
-    <row r="385" spans="2:14" ht="12.75" customHeight="1">
+    <row r="385" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
         <v>489</v>
       </c>
@@ -8000,17 +8071,17 @@
       </c>
       <c r="N385"/>
     </row>
-    <row r="386" spans="2:14" ht="12.75" customHeight="1">
+    <row r="386" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
         <v>75</v>
       </c>
       <c r="D386" s="5"/>
       <c r="N386"/>
     </row>
-    <row r="387" spans="2:14" ht="12.75">
+    <row r="387" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N387"/>
     </row>
-    <row r="388" spans="2:14" ht="12.75" customHeight="1">
+    <row r="388" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F388" t="s">
         <v>64</v>
       </c>
@@ -8019,7 +8090,7 @@
       </c>
       <c r="N388"/>
     </row>
-    <row r="389" spans="2:14" ht="12.75" customHeight="1">
+    <row r="389" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
         <v>492</v>
       </c>
@@ -8034,7 +8105,7 @@
       </c>
       <c r="N389"/>
     </row>
-    <row r="390" spans="2:14" ht="12.75" customHeight="1">
+    <row r="390" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
         <v>56</v>
       </c>
@@ -8043,7 +8114,7 @@
       </c>
       <c r="N390"/>
     </row>
-    <row r="391" spans="2:14" ht="12.75" customHeight="1">
+    <row r="391" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
         <v>495</v>
       </c>
@@ -8060,17 +8131,17 @@
         <v>497</v>
       </c>
     </row>
-    <row r="392" spans="2:14" ht="12.75" customHeight="1">
+    <row r="392" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
         <v>75</v>
       </c>
       <c r="D392" s="5"/>
       <c r="N392"/>
     </row>
-    <row r="393" spans="2:14" ht="12.75">
+    <row r="393" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N393"/>
     </row>
-    <row r="394" spans="2:14" ht="12.75" customHeight="1">
+    <row r="394" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="13"/>
       <c r="C394" s="13" t="s">
         <v>56</v>
@@ -8086,7 +8157,7 @@
       </c>
       <c r="N394"/>
     </row>
-    <row r="395" spans="2:14" ht="12.75" customHeight="1">
+    <row r="395" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
       <c r="E395" t="s">
@@ -8103,7 +8174,7 @@
       </c>
       <c r="N395"/>
     </row>
-    <row r="396" spans="2:14" ht="12.75" customHeight="1">
+    <row r="396" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="13"/>
       <c r="C396" s="16" t="s">
         <v>56</v>
@@ -8113,7 +8184,7 @@
       </c>
       <c r="N396"/>
     </row>
-    <row r="397" spans="2:14" ht="12.75" customHeight="1">
+    <row r="397" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="13"/>
       <c r="C397" s="16"/>
       <c r="F397" t="s">
@@ -8127,7 +8198,7 @@
       </c>
       <c r="N397"/>
     </row>
-    <row r="398" spans="2:14" ht="12.75" customHeight="1">
+    <row r="398" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="13"/>
       <c r="C398" s="16" t="s">
         <v>75</v>
@@ -8135,7 +8206,7 @@
       <c r="D398" s="5"/>
       <c r="N398"/>
     </row>
-    <row r="399" spans="2:14" ht="12.75" customHeight="1">
+    <row r="399" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
       <c r="E399" t="s">
@@ -8152,12 +8223,12 @@
       </c>
       <c r="N399"/>
     </row>
-    <row r="400" spans="2:14" ht="12.75">
+    <row r="400" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
       <c r="N400"/>
     </row>
-    <row r="401" spans="2:14" ht="12.75">
+    <row r="401" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="13"/>
       <c r="C401" s="16" t="s">
         <v>56</v>
@@ -8167,7 +8238,7 @@
       </c>
       <c r="N401"/>
     </row>
-    <row r="402" spans="2:14" ht="12.75" customHeight="1">
+    <row r="402" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="13"/>
       <c r="C402" s="16"/>
       <c r="E402" t="s">
@@ -8184,7 +8255,7 @@
       </c>
       <c r="N402"/>
     </row>
-    <row r="403" spans="2:14" ht="12.75" customHeight="1">
+    <row r="403" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="13"/>
       <c r="C403" s="16" t="s">
         <v>75</v>
@@ -8192,7 +8263,7 @@
       <c r="D403" s="5"/>
       <c r="N403"/>
     </row>
-    <row r="404" spans="2:14" ht="12.75" customHeight="1">
+    <row r="404" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
       <c r="E404" t="s">
@@ -8209,17 +8280,17 @@
       </c>
       <c r="N404"/>
     </row>
-    <row r="405" spans="2:14" ht="12.75" customHeight="1">
+    <row r="405" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="13"/>
       <c r="C405" s="13" t="s">
         <v>75</v>
       </c>
       <c r="N405"/>
     </row>
-    <row r="406" spans="2:14" ht="12.75">
+    <row r="406" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N406"/>
     </row>
-    <row r="407" spans="2:14" ht="12.75" customHeight="1">
+    <row r="407" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="10"/>
       <c r="C407" s="10" t="s">
         <v>56</v>
@@ -8235,7 +8306,7 @@
       </c>
       <c r="N407"/>
     </row>
-    <row r="408" spans="2:14" ht="12.75" customHeight="1">
+    <row r="408" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="10"/>
       <c r="C408" s="10"/>
       <c r="D408" s="5"/>
@@ -8253,7 +8324,7 @@
       </c>
       <c r="N408"/>
     </row>
-    <row r="409" spans="2:14" ht="12.75" customHeight="1">
+    <row r="409" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="10"/>
       <c r="C409" s="11" t="s">
         <v>56</v>
@@ -8263,7 +8334,7 @@
       </c>
       <c r="N409"/>
     </row>
-    <row r="410" spans="2:14" ht="12.75" customHeight="1">
+    <row r="410" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="10"/>
       <c r="C410" s="11"/>
       <c r="F410" t="s">
@@ -8277,7 +8348,7 @@
       </c>
       <c r="N410"/>
     </row>
-    <row r="411" spans="2:14" ht="12.75" customHeight="1">
+    <row r="411" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="10"/>
       <c r="C411" s="11" t="s">
         <v>75</v>
@@ -8285,7 +8356,7 @@
       <c r="D411" s="5"/>
       <c r="N411"/>
     </row>
-    <row r="412" spans="2:14" ht="12.75" customHeight="1">
+    <row r="412" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="10"/>
       <c r="C412" s="10"/>
       <c r="D412" s="5"/>
@@ -8303,12 +8374,12 @@
       </c>
       <c r="N412"/>
     </row>
-    <row r="413" spans="2:14" ht="12.75">
+    <row r="413" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
       <c r="N413"/>
     </row>
-    <row r="414" spans="2:14" ht="12.75">
+    <row r="414" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="10"/>
       <c r="C414" s="11" t="s">
         <v>56</v>
@@ -8318,7 +8389,7 @@
       </c>
       <c r="N414"/>
     </row>
-    <row r="415" spans="2:14" ht="12.75" customHeight="1">
+    <row r="415" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="10"/>
       <c r="C415" s="11"/>
       <c r="E415" t="s">
@@ -8335,7 +8406,7 @@
       </c>
       <c r="N415"/>
     </row>
-    <row r="416" spans="2:14" ht="12.75" customHeight="1">
+    <row r="416" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="10"/>
       <c r="C416" s="11" t="s">
         <v>75</v>
@@ -8343,7 +8414,7 @@
       <c r="D416" s="5"/>
       <c r="N416"/>
     </row>
-    <row r="417" spans="1:14" ht="12.75" customHeight="1">
+    <row r="417" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
       <c r="D417" s="5"/>
@@ -8361,21 +8432,21 @@
       </c>
       <c r="N417"/>
     </row>
-    <row r="418" spans="1:14" ht="12.75" customHeight="1">
+    <row r="418" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="10"/>
       <c r="C418" s="10" t="s">
         <v>75</v>
       </c>
       <c r="N418"/>
     </row>
-    <row r="419" spans="1:14" ht="12.75">
+    <row r="419" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N419"/>
     </row>
-    <row r="420" spans="1:14" ht="12.75">
+    <row r="420" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="28"/>
       <c r="N420"/>
     </row>
-    <row r="421" spans="1:14" ht="12.75">
+    <row r="421" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="15" t="s">
@@ -8386,7 +8457,7 @@
       </c>
       <c r="N421"/>
     </row>
-    <row r="422" spans="1:14" ht="12.75" customHeight="1">
+    <row r="422" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -8404,20 +8475,20 @@
       </c>
       <c r="N422"/>
     </row>
-    <row r="423" spans="1:14" ht="12.75" customHeight="1">
+    <row r="423" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
       <c r="D423" s="5"/>
       <c r="N423"/>
     </row>
-    <row r="424" spans="1:14" ht="12.75">
+    <row r="424" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
       <c r="N424"/>
     </row>
-    <row r="425" spans="1:14" ht="12.75" customHeight="1">
+    <row r="425" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="13"/>
       <c r="B425" s="16"/>
       <c r="C425" s="16" t="s">
@@ -8434,7 +8505,7 @@
       </c>
       <c r="N425"/>
     </row>
-    <row r="426" spans="1:14" ht="12.75" customHeight="1">
+    <row r="426" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="13"/>
       <c r="B426" s="16"/>
       <c r="C426" s="17"/>
@@ -8452,7 +8523,7 @@
       </c>
       <c r="N426"/>
     </row>
-    <row r="427" spans="1:14" ht="12.75" customHeight="1">
+    <row r="427" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="13"/>
       <c r="B427" s="16"/>
       <c r="C427" s="18" t="s">
@@ -8463,7 +8534,7 @@
       </c>
       <c r="N427"/>
     </row>
-    <row r="428" spans="1:14" ht="12.75" customHeight="1">
+    <row r="428" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="13"/>
       <c r="B428" s="16"/>
       <c r="C428" s="29"/>
@@ -8479,7 +8550,7 @@
       </c>
       <c r="N428"/>
     </row>
-    <row r="429" spans="1:14" ht="12.75" customHeight="1">
+    <row r="429" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
       <c r="B429" s="16"/>
       <c r="C429" s="29" t="s">
@@ -8487,7 +8558,7 @@
       </c>
       <c r="N429"/>
     </row>
-    <row r="430" spans="1:14" ht="12.75" customHeight="1">
+    <row r="430" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="13"/>
       <c r="B430" s="16"/>
       <c r="C430" s="17"/>
@@ -8505,7 +8576,7 @@
       </c>
       <c r="N430"/>
     </row>
-    <row r="431" spans="1:14" ht="12.75" customHeight="1">
+    <row r="431" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="16"/>
       <c r="C431" s="18" t="s">
@@ -8516,7 +8587,7 @@
       </c>
       <c r="N431"/>
     </row>
-    <row r="432" spans="1:14" ht="12.75" customHeight="1">
+    <row r="432" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="13"/>
       <c r="B432" s="16"/>
       <c r="C432" s="29"/>
@@ -8531,7 +8602,7 @@
       </c>
       <c r="N432"/>
     </row>
-    <row r="433" spans="1:14" ht="12.75" customHeight="1">
+    <row r="433" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="13"/>
       <c r="B433" s="16"/>
       <c r="C433" s="29" t="s">
@@ -8540,7 +8611,7 @@
       <c r="D433" s="5"/>
       <c r="N433"/>
     </row>
-    <row r="434" spans="1:14" ht="12.75" customHeight="1">
+    <row r="434" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="16"/>
       <c r="C434" s="16" t="s">
@@ -8548,7 +8619,7 @@
       </c>
       <c r="N434"/>
     </row>
-    <row r="435" spans="1:14" ht="12.75">
+    <row r="435" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13" t="s">
@@ -8556,13 +8627,13 @@
       </c>
       <c r="N435"/>
     </row>
-    <row r="436" spans="1:14" ht="12.75">
+    <row r="436" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N436"/>
     </row>
-    <row r="437" spans="1:14" ht="12.75">
+    <row r="437" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N437"/>
     </row>
-    <row r="438" spans="1:14" ht="12.75" customHeight="1">
+    <row r="438" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D438" s="5"/>
       <c r="E438" t="s">
         <v>542</v>
@@ -8578,7 +8649,7 @@
       </c>
       <c r="N438"/>
     </row>
-    <row r="439" spans="1:14" ht="12.75" customHeight="1">
+    <row r="439" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C439" t="s">
         <v>56</v>
       </c>
@@ -8587,7 +8658,7 @@
       </c>
       <c r="N439"/>
     </row>
-    <row r="440" spans="1:14" ht="12.75" customHeight="1">
+    <row r="440" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
         <v>545</v>
       </c>
@@ -8602,7 +8673,7 @@
       </c>
       <c r="N440"/>
     </row>
-    <row r="441" spans="1:14" ht="12.75" customHeight="1">
+    <row r="441" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
         <v>56</v>
       </c>
@@ -8611,7 +8682,7 @@
       </c>
       <c r="N441"/>
     </row>
-    <row r="442" spans="1:14" ht="12.75" customHeight="1">
+    <row r="442" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F442" t="s">
         <v>27</v>
       </c>
@@ -8623,21 +8694,21 @@
       </c>
       <c r="N442"/>
     </row>
-    <row r="443" spans="1:14" ht="12.75" customHeight="1">
+    <row r="443" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
         <v>75</v>
       </c>
       <c r="D443" s="5"/>
       <c r="N443"/>
     </row>
-    <row r="444" spans="1:14" ht="12.75" customHeight="1">
+    <row r="444" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C444" t="s">
         <v>75</v>
       </c>
       <c r="D444" s="5"/>
       <c r="N444"/>
     </row>
-    <row r="445" spans="1:14" ht="12.75" customHeight="1">
+    <row r="445" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
         <v>550</v>
       </c>
@@ -8652,10 +8723,10 @@
       </c>
       <c r="N445"/>
     </row>
-    <row r="446" spans="1:14" ht="12.75" customHeight="1">
+    <row r="446" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N446"/>
     </row>
-    <row r="447" spans="1:14" ht="12.75" customHeight="1">
+    <row r="447" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
         <v>552</v>
       </c>
@@ -8670,7 +8741,7 @@
       </c>
       <c r="N447"/>
     </row>
-    <row r="448" spans="1:14" ht="12.75" customHeight="1">
+    <row r="448" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
         <v>56</v>
       </c>
@@ -8679,7 +8750,7 @@
       </c>
       <c r="N448"/>
     </row>
-    <row r="449" spans="2:14" ht="12.75" customHeight="1">
+    <row r="449" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
         <v>555</v>
       </c>
@@ -8694,7 +8765,7 @@
       </c>
       <c r="N449"/>
     </row>
-    <row r="450" spans="2:14" ht="12.75" customHeight="1">
+    <row r="450" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D450" s="5"/>
       <c r="E450" t="s">
         <v>557</v>
@@ -8710,7 +8781,7 @@
       </c>
       <c r="N450"/>
     </row>
-    <row r="451" spans="2:14" ht="12.75" customHeight="1">
+    <row r="451" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
         <v>56</v>
       </c>
@@ -8719,7 +8790,7 @@
       </c>
       <c r="N451"/>
     </row>
-    <row r="452" spans="2:14" ht="12.75" customHeight="1">
+    <row r="452" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F452" t="s">
         <v>27</v>
       </c>
@@ -8731,21 +8802,21 @@
       </c>
       <c r="N452"/>
     </row>
-    <row r="453" spans="2:14" ht="12.75" customHeight="1">
+    <row r="453" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
         <v>75</v>
       </c>
       <c r="D453" s="5"/>
       <c r="N453"/>
     </row>
-    <row r="454" spans="2:14" ht="12.75" customHeight="1">
+    <row r="454" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
         <v>75</v>
       </c>
       <c r="D454" s="5"/>
       <c r="N454"/>
     </row>
-    <row r="455" spans="2:14" ht="12.75" customHeight="1">
+    <row r="455" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
         <v>562</v>
       </c>
@@ -8760,13 +8831,13 @@
       </c>
       <c r="N455"/>
     </row>
-    <row r="456" spans="2:14" ht="12.75">
+    <row r="456" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N456"/>
     </row>
-    <row r="457" spans="2:14" ht="12.75">
+    <row r="457" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N457"/>
     </row>
-    <row r="458" spans="2:14" ht="12.75" customHeight="1">
+    <row r="458" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F458" t="s">
         <v>27</v>
       </c>
@@ -8778,7 +8849,7 @@
       </c>
       <c r="N458"/>
     </row>
-    <row r="459" spans="2:14" ht="12.75" customHeight="1">
+    <row r="459" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
         <v>566</v>
       </c>
@@ -8793,10 +8864,10 @@
       </c>
       <c r="N459"/>
     </row>
-    <row r="460" spans="2:14" ht="12.75">
+    <row r="460" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N460"/>
     </row>
-    <row r="461" spans="2:14" ht="12.75" customHeight="1">
+    <row r="461" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="10"/>
       <c r="C461" s="10" t="s">
         <v>56</v>
@@ -8812,7 +8883,7 @@
       </c>
       <c r="N461"/>
     </row>
-    <row r="462" spans="2:14" ht="12.75" customHeight="1">
+    <row r="462" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="10"/>
       <c r="C462" s="10"/>
       <c r="F462" t="s">
@@ -8829,7 +8900,7 @@
       </c>
       <c r="N462"/>
     </row>
-    <row r="463" spans="2:14" ht="12.75" customHeight="1">
+    <row r="463" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="10"/>
       <c r="C463" s="10"/>
       <c r="E463" t="s">
@@ -8846,7 +8917,7 @@
       </c>
       <c r="N463"/>
     </row>
-    <row r="464" spans="2:14" ht="12.75" customHeight="1">
+    <row r="464" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="10"/>
       <c r="C464" s="11" t="s">
         <v>56</v>
@@ -8856,7 +8927,7 @@
       </c>
       <c r="N464"/>
     </row>
-    <row r="465" spans="2:14" ht="12.75" customHeight="1">
+    <row r="465" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="10"/>
       <c r="C465" s="11"/>
       <c r="F465" t="s">
@@ -8870,7 +8941,7 @@
       </c>
       <c r="N465"/>
     </row>
-    <row r="466" spans="2:14" ht="12.75" customHeight="1">
+    <row r="466" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="10"/>
       <c r="C466" s="11" t="s">
         <v>75</v>
@@ -8878,7 +8949,7 @@
       <c r="D466" s="5"/>
       <c r="N466"/>
     </row>
-    <row r="467" spans="2:14" ht="12.75" customHeight="1">
+    <row r="467" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="10"/>
       <c r="C467" s="10"/>
       <c r="E467" t="s">
@@ -8895,7 +8966,7 @@
       </c>
       <c r="N467"/>
     </row>
-    <row r="468" spans="2:14" ht="12.75" customHeight="1">
+    <row r="468" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="10"/>
       <c r="C468" s="11" t="s">
         <v>56</v>
@@ -8905,7 +8976,7 @@
       </c>
       <c r="N468"/>
     </row>
-    <row r="469" spans="2:14" ht="12.75" customHeight="1">
+    <row r="469" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="10"/>
       <c r="C469" s="11"/>
       <c r="F469" t="s">
@@ -8919,7 +8990,7 @@
       </c>
       <c r="N469"/>
     </row>
-    <row r="470" spans="2:14" ht="12.75" customHeight="1">
+    <row r="470" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="10"/>
       <c r="C470" s="11" t="s">
         <v>75</v>
@@ -8927,7 +8998,7 @@
       <c r="D470" s="5"/>
       <c r="N470"/>
     </row>
-    <row r="471" spans="2:14" ht="12.75" customHeight="1">
+    <row r="471" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="10"/>
       <c r="C471" s="10"/>
       <c r="F471" t="s">
@@ -8941,19 +9012,19 @@
       </c>
       <c r="N471"/>
     </row>
-    <row r="472" spans="2:14" ht="12.75" customHeight="1">
+    <row r="472" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="10"/>
       <c r="C472" s="10" t="s">
         <v>75</v>
       </c>
       <c r="N472"/>
     </row>
-    <row r="473" spans="2:14" s="7" customFormat="1" ht="12.75" customHeight="1">
+    <row r="473" spans="2:14" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C473" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="474" spans="2:14" ht="12.75" customHeight="1">
+    <row r="474" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F474" t="s">
         <v>64</v>
       </c>
@@ -8962,10 +9033,10 @@
       </c>
       <c r="N474"/>
     </row>
-    <row r="475" spans="2:14" ht="12.75">
+    <row r="475" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N475"/>
     </row>
-    <row r="476" spans="2:14" ht="12.75" customHeight="1">
+    <row r="476" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F476" t="s">
         <v>587</v>
       </c>
@@ -8977,7 +9048,7 @@
       </c>
       <c r="N476"/>
     </row>
-    <row r="477" spans="2:14" ht="12.75" customHeight="1">
+    <row r="477" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F477" t="s">
         <v>27</v>
       </c>
@@ -8989,7 +9060,7 @@
       </c>
       <c r="N477"/>
     </row>
-    <row r="478" spans="2:14" ht="12.75" customHeight="1">
+    <row r="478" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F478" t="s">
         <v>27</v>
       </c>
@@ -9004,7 +9075,7 @@
       </c>
       <c r="N478"/>
     </row>
-    <row r="479" spans="2:14" ht="12.75" customHeight="1">
+    <row r="479" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F479" t="s">
         <v>27</v>
       </c>
@@ -9016,35 +9087,181 @@
       </c>
       <c r="N479"/>
     </row>
-    <row r="1048549" ht="12.75"/>
-    <row r="1048550" ht="12.75"/>
-    <row r="1048551" ht="12.75"/>
-    <row r="1048552" ht="12.75"/>
-    <row r="1048553" ht="12.75"/>
-    <row r="1048554" ht="12.75"/>
-    <row r="1048555" ht="12.75"/>
-    <row r="1048556" ht="12.75"/>
-    <row r="1048557" ht="12.75"/>
-    <row r="1048558" ht="12.75"/>
-    <row r="1048559" ht="12.75"/>
-    <row r="1048560" ht="12.75"/>
-    <row r="1048561" ht="12.75"/>
-    <row r="1048562" ht="12.75"/>
-    <row r="1048563" ht="12.75"/>
-    <row r="1048564" ht="12.75"/>
-    <row r="1048565" ht="12.75"/>
-    <row r="1048566" ht="12.75"/>
-    <row r="1048567" ht="12.75"/>
-    <row r="1048568" ht="12.75"/>
-    <row r="1048569" ht="12.75"/>
-    <row r="1048570" ht="12.75"/>
-    <row r="1048571" ht="12.75"/>
-    <row r="1048572" ht="12.75"/>
-    <row r="1048573" ht="12.75"/>
-    <row r="1048574" ht="12.75"/>
-    <row r="1048575" ht="12.75"/>
-    <row r="1048576" ht="12.75"/>
+    <row r="484" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C484" t="s">
+        <v>56</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F485" t="s">
+        <v>607</v>
+      </c>
+      <c r="G485" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="486" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F486" t="s">
+        <v>607</v>
+      </c>
+      <c r="G486" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="487" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F487" t="s">
+        <v>607</v>
+      </c>
+      <c r="G487" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="488" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F488" t="s">
+        <v>607</v>
+      </c>
+      <c r="G488" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="489" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F489" t="s">
+        <v>607</v>
+      </c>
+      <c r="G489" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="490" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F490" t="s">
+        <v>607</v>
+      </c>
+      <c r="G490" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="491" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F491" t="s">
+        <v>607</v>
+      </c>
+      <c r="G491" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="492" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F492" t="s">
+        <v>607</v>
+      </c>
+      <c r="G492" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="493" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F493" t="s">
+        <v>607</v>
+      </c>
+      <c r="G493" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="494" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F494" t="s">
+        <v>607</v>
+      </c>
+      <c r="G494" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="495" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F495" t="s">
+        <v>607</v>
+      </c>
+      <c r="G495" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="496" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F496" t="s">
+        <v>607</v>
+      </c>
+      <c r="G496" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="497" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F497" t="s">
+        <v>607</v>
+      </c>
+      <c r="G497" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="498" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F498" t="s">
+        <v>607</v>
+      </c>
+      <c r="G498" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="499" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F499" t="s">
+        <v>607</v>
+      </c>
+      <c r="G499" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="500" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F500" t="s">
+        <v>607</v>
+      </c>
+      <c r="G500" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="501" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F501" t="s">
+        <v>607</v>
+      </c>
+      <c r="G501" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="502" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F502" t="s">
+        <v>607</v>
+      </c>
+      <c r="G502" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="503" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F503" t="s">
+        <v>607</v>
+      </c>
+      <c r="G503" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="504" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F504" t="s">
+        <v>607</v>
+      </c>
+      <c r="G504" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="505" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C505" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -9062,14 +9279,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="3" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>597</v>
       </c>
@@ -9080,7 +9297,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>600</v>
       </c>
@@ -9088,7 +9305,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>602</v>
       </c>
@@ -9096,7 +9313,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>603</v>
       </c>
@@ -9104,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>601</v>
       </c>
@@ -9126,16 +9343,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -9146,7 +9363,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>606</v>
       </c>
@@ -9172,15 +9389,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="4" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>608</v>
       </c>
@@ -9191,7 +9408,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9202,7 +9419,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9213,7 +9430,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -9224,7 +9441,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -9235,7 +9452,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -9246,7 +9463,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>616</v>
       </c>
@@ -9257,7 +9474,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>616</v>
       </c>
@@ -9268,7 +9485,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>616</v>
       </c>
@@ -9279,7 +9496,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>616</v>
       </c>
@@ -9290,7 +9507,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>616</v>
       </c>
@@ -9301,7 +9518,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -9312,7 +9529,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -9323,7 +9540,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -9334,7 +9551,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -9345,7 +9562,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -9356,7 +9573,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -9367,7 +9584,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -9378,7 +9595,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -9389,7 +9606,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -9400,7 +9617,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -9411,7 +9628,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -9422,7 +9639,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -9433,7 +9650,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -9444,7 +9661,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -9455,7 +9672,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -9466,7 +9683,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -9477,7 +9694,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -9488,7 +9705,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -9499,7 +9716,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -9510,7 +9727,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -9521,7 +9738,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -9532,7 +9749,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -9543,7 +9760,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -9554,7 +9771,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -9565,7 +9782,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -9576,7 +9793,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -9587,7 +9804,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -9598,7 +9815,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -9609,7 +9826,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -9620,7 +9837,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -9631,7 +9848,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -9642,7 +9859,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -9653,7 +9870,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -9664,7 +9881,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>150</v>
       </c>
@@ -9675,7 +9892,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>166</v>
       </c>
@@ -9686,7 +9903,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>166</v>
       </c>
@@ -9697,7 +9914,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>170</v>
       </c>
@@ -9708,7 +9925,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -9719,7 +9936,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>170</v>
       </c>
@@ -9730,7 +9947,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -9741,7 +9958,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -9752,7 +9969,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -9763,7 +9980,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -9774,7 +9991,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -9785,7 +10002,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -9796,7 +10013,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>175</v>
       </c>
@@ -9807,7 +10024,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>180</v>
       </c>
@@ -9818,7 +10035,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>180</v>
       </c>
@@ -9829,7 +10046,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>180</v>
       </c>
@@ -9840,7 +10057,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
@@ -9851,7 +10068,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>180</v>
       </c>
@@ -9862,7 +10079,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>180</v>
       </c>
@@ -9873,7 +10090,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -9884,7 +10101,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -9895,7 +10112,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>189</v>
       </c>
@@ -9906,7 +10123,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -9917,7 +10134,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -9928,7 +10145,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -9939,7 +10156,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>189</v>
       </c>
@@ -9950,7 +10167,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -9961,7 +10178,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>189</v>
       </c>
@@ -9972,7 +10189,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -9983,7 +10200,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -9994,7 +10211,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -10005,7 +10222,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -10016,7 +10233,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -10027,7 +10244,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>197</v>
       </c>
@@ -10038,7 +10255,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -10049,7 +10266,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>197</v>
       </c>
@@ -10060,7 +10277,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -10071,7 +10288,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -10082,7 +10299,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>197</v>
       </c>
@@ -10093,7 +10310,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>197</v>
       </c>
@@ -10104,7 +10321,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>202</v>
       </c>
@@ -10115,7 +10332,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>202</v>
       </c>
@@ -10126,7 +10343,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -10137,7 +10354,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -10148,7 +10365,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -10159,7 +10376,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>204</v>
       </c>
@@ -10170,7 +10387,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -10181,7 +10398,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -10192,7 +10409,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>207</v>
       </c>
@@ -10203,7 +10420,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>207</v>
       </c>
@@ -10214,7 +10431,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -10225,7 +10442,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>212</v>
       </c>
@@ -10236,7 +10453,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>212</v>
       </c>
@@ -10247,7 +10464,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>215</v>
       </c>
@@ -10258,7 +10475,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>215</v>
       </c>
@@ -10269,7 +10486,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>215</v>
       </c>
@@ -10280,7 +10497,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -10291,7 +10508,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -10302,7 +10519,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -10313,7 +10530,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -10324,7 +10541,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>220</v>
       </c>
@@ -10335,7 +10552,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>220</v>
       </c>
@@ -10346,7 +10563,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>223</v>
       </c>
@@ -10357,7 +10574,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>223</v>
       </c>
@@ -10368,7 +10585,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -10379,7 +10596,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>246</v>
       </c>
@@ -10390,7 +10607,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>249</v>
       </c>
@@ -10401,7 +10618,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>249</v>
       </c>
@@ -10412,7 +10629,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>256</v>
       </c>
@@ -10423,7 +10640,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>256</v>
       </c>
@@ -10434,7 +10651,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>731</v>
       </c>
@@ -10445,7 +10662,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>731</v>
       </c>
@@ -10456,7 +10673,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>262</v>
       </c>
@@ -10467,7 +10684,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -10478,7 +10695,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -10489,7 +10706,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -10500,7 +10717,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>262</v>
       </c>
@@ -10511,7 +10728,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>262</v>
       </c>
@@ -10522,7 +10739,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>262</v>
       </c>
@@ -10533,7 +10750,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>276</v>
       </c>
@@ -10544,7 +10761,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>276</v>
       </c>
@@ -10555,7 +10772,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>279</v>
       </c>
@@ -10566,7 +10783,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>279</v>
       </c>
@@ -10577,7 +10794,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>279</v>
       </c>
@@ -10588,7 +10805,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>292</v>
       </c>
@@ -10599,7 +10816,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>292</v>
       </c>
@@ -10610,7 +10827,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>295</v>
       </c>
@@ -10621,7 +10838,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>295</v>
       </c>
@@ -10632,7 +10849,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>295</v>
       </c>
@@ -10643,7 +10860,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>295</v>
       </c>
@@ -10654,7 +10871,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>295</v>
       </c>
@@ -10665,7 +10882,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -10676,7 +10893,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>300</v>
       </c>
@@ -10687,7 +10904,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>300</v>
       </c>
@@ -10698,7 +10915,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>290</v>
       </c>
@@ -10709,7 +10926,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>290</v>
       </c>
@@ -10720,7 +10937,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>393</v>
       </c>
@@ -10731,7 +10948,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -10742,7 +10959,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>751</v>
       </c>
@@ -10753,7 +10970,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>751</v>
       </c>
@@ -10764,7 +10981,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>752</v>
       </c>
@@ -10775,7 +10992,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>752</v>
       </c>
@@ -10786,7 +11003,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="26" customFormat="1" ht="13.9">
+    <row r="206" spans="1:3" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="26" t="s">
         <v>449</v>
       </c>
@@ -10797,7 +11014,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="26" customFormat="1" ht="13.9">
+    <row r="207" spans="1:3" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="26" t="s">
         <v>449</v>
       </c>
@@ -10808,7 +11025,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>304</v>
       </c>
@@ -10819,7 +11036,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>304</v>
       </c>
@@ -10830,7 +11047,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>310</v>
       </c>
@@ -10841,7 +11058,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>310</v>
       </c>
@@ -10852,7 +11069,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>310</v>
       </c>
@@ -10863,7 +11080,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>310</v>
       </c>
@@ -10874,7 +11091,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>310</v>
       </c>
@@ -10885,7 +11102,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>310</v>
       </c>
@@ -10896,7 +11113,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -10907,7 +11124,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -10918,7 +11135,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -10929,7 +11146,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>413</v>
       </c>
@@ -10940,7 +11157,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>413</v>
       </c>
@@ -10951,7 +11168,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>419</v>
       </c>
@@ -10962,7 +11179,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>419</v>
       </c>
@@ -10973,7 +11190,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>419</v>
       </c>
@@ -10984,7 +11201,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>419</v>
       </c>
@@ -10995,7 +11212,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>419</v>
       </c>
@@ -11006,7 +11223,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>419</v>
       </c>
@@ -11017,7 +11234,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>419</v>
       </c>
@@ -11028,7 +11245,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>433</v>
       </c>
@@ -11039,7 +11256,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>433</v>
       </c>
@@ -11050,7 +11267,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>433</v>
       </c>
@@ -11061,7 +11278,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>435</v>
       </c>
@@ -11072,7 +11289,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>435</v>
       </c>
@@ -11083,7 +11300,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>435</v>
       </c>
@@ -11094,7 +11311,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>435</v>
       </c>
@@ -11105,7 +11322,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>439</v>
       </c>
@@ -11116,7 +11333,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>439</v>
       </c>
@@ -11127,7 +11344,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>442</v>
       </c>
@@ -11138,7 +11355,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>442</v>
       </c>
@@ -11149,7 +11366,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>442</v>
       </c>
@@ -11160,7 +11377,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>442</v>
       </c>
@@ -11171,7 +11388,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>442</v>
       </c>
@@ -11182,7 +11399,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>447</v>
       </c>
@@ -11193,7 +11410,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>447</v>
       </c>
@@ -11204,7 +11421,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>447</v>
       </c>
@@ -11215,7 +11432,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -11226,7 +11443,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>302</v>
       </c>
@@ -11237,7 +11454,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>454</v>
       </c>
@@ -11248,7 +11465,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>454</v>
       </c>
@@ -11259,7 +11476,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>454</v>
       </c>
@@ -11270,7 +11487,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>454</v>
       </c>
@@ -11281,7 +11498,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>454</v>
       </c>
@@ -11292,7 +11509,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>459</v>
       </c>
@@ -11303,7 +11520,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>459</v>
       </c>
@@ -11314,7 +11531,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>461</v>
       </c>
@@ -11325,7 +11542,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>461</v>
       </c>
@@ -11336,7 +11553,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>466</v>
       </c>
@@ -11347,7 +11564,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>466</v>
       </c>
@@ -11358,7 +11575,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>466</v>
       </c>
@@ -11369,7 +11586,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>466</v>
       </c>
@@ -11380,7 +11597,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>466</v>
       </c>
@@ -11391,7 +11608,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>474</v>
       </c>
@@ -11402,7 +11619,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>474</v>
       </c>
@@ -11413,7 +11630,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>479</v>
       </c>
@@ -11424,7 +11641,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>479</v>
       </c>
@@ -11435,7 +11652,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>482</v>
       </c>
@@ -11446,7 +11663,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>482</v>
       </c>
@@ -11457,7 +11674,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>482</v>
       </c>
@@ -11468,7 +11685,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>482</v>
       </c>
@@ -11479,7 +11696,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>484</v>
       </c>
@@ -11490,7 +11707,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>484</v>
       </c>
@@ -11501,7 +11718,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>486</v>
       </c>
@@ -11512,7 +11729,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>486</v>
       </c>
@@ -11523,7 +11740,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>486</v>
       </c>
@@ -11534,7 +11751,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>489</v>
       </c>
@@ -11545,7 +11762,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>489</v>
       </c>
@@ -11556,7 +11773,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>492</v>
       </c>
@@ -11567,7 +11784,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>492</v>
       </c>
@@ -11578,7 +11795,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>495</v>
       </c>
@@ -11589,7 +11806,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>495</v>
       </c>
@@ -11600,7 +11817,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>495</v>
       </c>
@@ -11611,7 +11828,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>501</v>
       </c>
@@ -11622,7 +11839,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>501</v>
       </c>
@@ -11633,7 +11850,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>501</v>
       </c>
@@ -11644,7 +11861,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>501</v>
       </c>
@@ -11655,7 +11872,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>501</v>
       </c>
@@ -11666,7 +11883,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>511</v>
       </c>
@@ -11677,7 +11894,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>511</v>
       </c>
@@ -11688,7 +11905,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>511</v>
       </c>
@@ -11699,7 +11916,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>511</v>
       </c>
@@ -11710,7 +11927,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>511</v>
       </c>
@@ -11721,7 +11938,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>506</v>
       </c>
@@ -11732,7 +11949,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>506</v>
       </c>
@@ -11743,7 +11960,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>506</v>
       </c>
@@ -11754,7 +11971,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>506</v>
       </c>
@@ -11765,7 +11982,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>506</v>
       </c>
@@ -11776,7 +11993,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>509</v>
       </c>
@@ -11787,7 +12004,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>509</v>
       </c>
@@ -11798,7 +12015,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>509</v>
       </c>
@@ -11809,7 +12026,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>509</v>
       </c>
@@ -11820,7 +12037,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>509</v>
       </c>
@@ -11831,7 +12048,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>509</v>
       </c>
@@ -11842,7 +12059,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>509</v>
       </c>
@@ -11853,7 +12070,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>509</v>
       </c>
@@ -11864,7 +12081,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>509</v>
       </c>
@@ -11875,7 +12092,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>509</v>
       </c>
@@ -11886,7 +12103,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>509</v>
       </c>
@@ -11897,7 +12114,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>509</v>
       </c>
@@ -11908,7 +12125,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>527</v>
       </c>
@@ -11919,7 +12136,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>527</v>
       </c>
@@ -11930,7 +12147,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>532</v>
       </c>
@@ -11941,7 +12158,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>532</v>
       </c>
@@ -11952,7 +12169,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>532</v>
       </c>
@@ -11963,7 +12180,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>532</v>
       </c>
@@ -11974,7 +12191,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>532</v>
       </c>
@@ -11985,7 +12202,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>537</v>
       </c>
@@ -11996,7 +12213,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>537</v>
       </c>
@@ -12007,7 +12224,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>537</v>
       </c>
@@ -12018,7 +12235,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>103</v>
       </c>
@@ -12029,7 +12246,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>103</v>
       </c>
@@ -12040,7 +12257,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>108</v>
       </c>
@@ -12051,7 +12268,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>108</v>
       </c>
@@ -12062,7 +12279,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>108</v>
       </c>
@@ -12073,7 +12290,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>108</v>
       </c>
@@ -12084,7 +12301,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>118</v>
       </c>
@@ -12095,7 +12312,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>118</v>
       </c>
@@ -12106,7 +12323,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>852</v>
       </c>
@@ -12117,7 +12334,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>852</v>
       </c>
@@ -12128,7 +12345,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>542</v>
       </c>
@@ -12139,7 +12356,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>542</v>
       </c>
@@ -12150,7 +12367,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>552</v>
       </c>
@@ -12161,7 +12378,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>552</v>
       </c>
@@ -12172,7 +12389,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>562</v>
       </c>
@@ -12183,7 +12400,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>562</v>
       </c>
@@ -12194,7 +12411,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>853</v>
       </c>
@@ -12205,7 +12422,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>853</v>
       </c>
@@ -12216,7 +12433,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>550</v>
       </c>
@@ -12227,7 +12444,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>550</v>
       </c>
@@ -12238,7 +12455,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>96</v>
       </c>
@@ -12249,7 +12466,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>96</v>
       </c>
@@ -12260,7 +12477,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>566</v>
       </c>
@@ -12271,7 +12488,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>566</v>
       </c>
@@ -12282,7 +12499,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>574</v>
       </c>
@@ -12293,7 +12510,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>574</v>
       </c>
@@ -12304,7 +12521,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>579</v>
       </c>
@@ -12315,7 +12532,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>579</v>
       </c>
@@ -12326,7 +12543,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>113</v>
       </c>
@@ -12337,7 +12554,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>113</v>
       </c>
@@ -12348,7 +12565,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>314</v>
       </c>
@@ -12359,7 +12576,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>314</v>
       </c>
@@ -12370,7 +12587,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>342</v>
       </c>
@@ -12381,7 +12598,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>342</v>
       </c>
@@ -12392,7 +12609,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>348</v>
       </c>
@@ -12403,7 +12620,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>348</v>
       </c>
@@ -12414,7 +12631,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>357</v>
       </c>
@@ -12425,7 +12642,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>357</v>
       </c>
@@ -12436,7 +12653,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>857</v>
       </c>
@@ -12447,7 +12664,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>857</v>
       </c>
@@ -12458,7 +12675,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>380</v>
       </c>
@@ -12469,7 +12686,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>380</v>
       </c>
@@ -12480,7 +12697,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>382</v>
       </c>
@@ -12491,7 +12708,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>382</v>
       </c>
@@ -12502,7 +12719,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>382</v>
       </c>
@@ -12513,7 +12730,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>395</v>
       </c>
@@ -12524,7 +12741,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>395</v>
       </c>
@@ -12535,7 +12752,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>398</v>
       </c>
@@ -12546,7 +12763,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>398</v>
       </c>
@@ -12557,7 +12774,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>398</v>
       </c>
@@ -12568,7 +12785,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>398</v>
       </c>
@@ -12579,7 +12796,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>398</v>
       </c>
@@ -12590,7 +12807,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>403</v>
       </c>
@@ -12601,7 +12818,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>403</v>
       </c>
@@ -12612,7 +12829,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>403</v>
       </c>
@@ -12623,7 +12840,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>244</v>
       </c>
@@ -12634,7 +12851,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>244</v>
       </c>
@@ -12645,7 +12862,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>244</v>
       </c>
@@ -12656,7 +12873,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>251</v>
       </c>
@@ -12667,7 +12884,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>251</v>
       </c>
@@ -12678,7 +12895,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>267</v>
       </c>
@@ -12689,7 +12906,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>267</v>
       </c>
@@ -12700,7 +12917,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>270</v>
       </c>
@@ -12711,7 +12928,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>270</v>
       </c>
@@ -12722,7 +12939,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>272</v>
       </c>
@@ -12733,7 +12950,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>272</v>
       </c>
@@ -12744,7 +12961,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>274</v>
       </c>
@@ -12755,7 +12972,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>274</v>
       </c>
@@ -12766,7 +12983,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>372</v>
       </c>
@@ -12777,7 +12994,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>372</v>
       </c>
@@ -12788,7 +13005,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>374</v>
       </c>
@@ -12799,7 +13016,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>374</v>
       </c>
@@ -12810,7 +13027,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>376</v>
       </c>
@@ -12821,7 +13038,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>376</v>
       </c>
@@ -12832,7 +13049,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>378</v>
       </c>
@@ -12843,7 +13060,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>378</v>
       </c>
@@ -12854,7 +13071,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>121</v>
       </c>
@@ -12865,7 +13082,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>121</v>
       </c>
@@ -12876,7 +13093,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>121</v>
       </c>
@@ -12887,7 +13104,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>121</v>
       </c>
@@ -12898,7 +13115,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>83</v>
       </c>
@@ -12909,7 +13126,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>83</v>
       </c>
@@ -12920,7 +13137,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>83</v>
       </c>
@@ -12931,7 +13148,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>83</v>
       </c>
@@ -12942,7 +13159,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>83</v>
       </c>
@@ -12953,7 +13170,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>83</v>
       </c>
@@ -12964,7 +13181,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>545</v>
       </c>
@@ -12975,7 +13192,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>545</v>
       </c>
@@ -12986,7 +13203,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>545</v>
       </c>
@@ -12997,7 +13214,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>545</v>
       </c>
@@ -13008,7 +13225,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>545</v>
       </c>
@@ -13019,7 +13236,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>89</v>
       </c>
@@ -13030,7 +13247,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>89</v>
       </c>
@@ -13041,7 +13258,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>89</v>
       </c>
@@ -13052,7 +13269,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>557</v>
       </c>
@@ -13063,7 +13280,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>557</v>
       </c>
@@ -13074,7 +13291,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>557</v>
       </c>
@@ -13085,7 +13302,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>557</v>
       </c>
@@ -13096,7 +13313,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>557</v>
       </c>
@@ -13107,7 +13324,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>555</v>
       </c>
@@ -13118,7 +13335,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>555</v>
       </c>
@@ -13129,7 +13346,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>884</v>
       </c>
@@ -13140,7 +13357,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>884</v>
       </c>
@@ -13151,7 +13368,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>884</v>
       </c>
@@ -13162,7 +13379,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>320</v>
       </c>
@@ -13173,7 +13390,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>320</v>
       </c>
@@ -13184,7 +13401,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>320</v>
       </c>
@@ -13195,7 +13412,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>320</v>
       </c>
@@ -13206,7 +13423,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>320</v>
       </c>
@@ -13217,7 +13434,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>320</v>
       </c>
@@ -13228,7 +13445,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>320</v>
       </c>
@@ -13239,7 +13456,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>334</v>
       </c>
@@ -13250,7 +13467,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>334</v>
       </c>
@@ -13261,7 +13478,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>334</v>
       </c>
@@ -13272,7 +13489,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>340</v>
       </c>
@@ -13283,7 +13500,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>340</v>
       </c>
@@ -13294,7 +13511,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>340</v>
       </c>
@@ -13305,7 +13522,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>340</v>
       </c>
@@ -13316,7 +13533,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>515</v>
       </c>
@@ -13327,7 +13544,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>515</v>
       </c>
@@ -13338,7 +13555,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>515</v>
       </c>
@@ -13349,7 +13566,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>515</v>
       </c>
@@ -13360,7 +13577,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>515</v>
       </c>
@@ -13371,7 +13588,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>525</v>
       </c>
@@ -13382,7 +13599,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>525</v>
       </c>
@@ -13393,7 +13610,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>525</v>
       </c>
@@ -13404,7 +13621,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>525</v>
       </c>
@@ -13415,7 +13632,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>525</v>
       </c>
@@ -13426,7 +13643,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>520</v>
       </c>
@@ -13437,7 +13654,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>520</v>
       </c>
@@ -13448,7 +13665,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>520</v>
       </c>
@@ -13459,7 +13676,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>520</v>
       </c>
@@ -13470,7 +13687,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>520</v>
       </c>
@@ -13481,7 +13698,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>523</v>
       </c>
@@ -13492,7 +13709,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>523</v>
       </c>
@@ -13503,7 +13720,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>523</v>
       </c>
@@ -13514,7 +13731,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>523</v>
       </c>
@@ -13525,7 +13742,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>523</v>
       </c>
@@ -13536,7 +13753,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>523</v>
       </c>
@@ -13547,7 +13764,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>523</v>
       </c>
@@ -13558,7 +13775,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>523</v>
       </c>
@@ -13569,7 +13786,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>523</v>
       </c>
@@ -13580,7 +13797,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>523</v>
       </c>
@@ -13591,7 +13808,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>523</v>
       </c>
@@ -13602,7 +13819,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>523</v>
       </c>
@@ -13613,7 +13830,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>21</v>
       </c>
@@ -13624,7 +13841,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>21</v>
       </c>
@@ -13635,7 +13852,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>259</v>
       </c>
@@ -13646,7 +13863,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>259</v>
       </c>
@@ -13657,7 +13874,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>286</v>
       </c>
@@ -13668,7 +13885,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>286</v>
       </c>
@@ -13679,7 +13896,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>286</v>
       </c>
@@ -13690,7 +13907,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>286</v>
       </c>
@@ -13701,7 +13918,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>286</v>
       </c>
@@ -13712,7 +13929,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>286</v>
       </c>
@@ -13723,7 +13940,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>362</v>
       </c>
@@ -13734,7 +13951,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>362</v>
       </c>
@@ -13745,7 +13962,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>365</v>
       </c>
@@ -13756,7 +13973,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>365</v>
       </c>
@@ -13767,7 +13984,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>365</v>
       </c>
@@ -13778,7 +13995,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>365</v>
       </c>
@@ -13789,7 +14006,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>365</v>
       </c>
@@ -13800,7 +14017,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>365</v>
       </c>
@@ -13811,7 +14028,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>365</v>
       </c>
@@ -13822,7 +14039,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>338</v>
       </c>
@@ -13833,7 +14050,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>338</v>
       </c>
@@ -13844,7 +14061,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>338</v>
       </c>
@@ -13855,7 +14072,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>352</v>
       </c>
@@ -13866,7 +14083,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>352</v>
       </c>
@@ -13877,7 +14094,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>389</v>
       </c>
@@ -13888,7 +14105,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>389</v>
       </c>
@@ -13899,7 +14116,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>389</v>
       </c>
@@ -13910,7 +14127,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>389</v>
       </c>
@@ -13921,7 +14138,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>389</v>
       </c>
@@ -13932,7 +14149,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>389</v>
       </c>
@@ -13943,7 +14160,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>226</v>
       </c>
@@ -13954,7 +14171,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>226</v>
       </c>
@@ -13965,7 +14182,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>226</v>
       </c>
@@ -13976,7 +14193,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>226</v>
       </c>
@@ -13987,7 +14204,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>226</v>
       </c>
@@ -13998,7 +14215,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>226</v>
       </c>
@@ -14009,7 +14226,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>226</v>
       </c>
@@ -14020,7 +14237,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>240</v>
       </c>
@@ -14031,7 +14248,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>240</v>
       </c>
@@ -14042,7 +14259,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>240</v>
       </c>
